--- a/aula19_dados_serie_temporal.xlsx
+++ b/aula19_dados_serie_temporal.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvar\Dropbox\Documentos\aulas\ifusp\ML_2024\dados\dados_exemplo_tseries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A1602-F3B0-4174-BEF5-FB7DA6656BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823CE1D-0219-49A3-8B6C-AEB4C66212ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1968" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="dados" sheetId="2" r:id="rId2"/>
+    <sheet name="exercicio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>datetime</t>
   </si>
@@ -105,6 +106,12 @@
   <si>
     <t>Série temporal mensal de variáveis meterológicas sobre a região metropolitana de São Paulo, índices meteorológicos e dados de uso da terra</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
 </sst>
 </file>
 
@@ -142,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -549,9 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FBC0B9-4880-4DBB-8D3F-EF22E0A7C532}">
   <dimension ref="A1:J529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2779,7 +2783,7 @@
       <c r="I74">
         <v>1.5854999999999999</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74">
         <v>0.12639328600000002</v>
       </c>
     </row>
@@ -2811,7 +2815,7 @@
       <c r="I75">
         <v>1.7612000000000001</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75">
         <v>0.12661028600000002</v>
       </c>
     </row>
@@ -2843,7 +2847,7 @@
       <c r="I76">
         <v>0.62649999999999995</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76">
         <v>0.12680628600000002</v>
       </c>
     </row>
@@ -2875,7 +2879,7 @@
       <c r="I77">
         <v>0.27210000000000001</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77">
         <v>0.12702328600000001</v>
       </c>
     </row>
@@ -2907,7 +2911,7 @@
       <c r="I78">
         <v>0.20019999999999999</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78">
         <v>0.12723328600000003</v>
       </c>
     </row>
@@ -2939,7 +2943,7 @@
       <c r="I79">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79">
         <v>0.12745028600000002</v>
       </c>
     </row>
@@ -2971,7 +2975,7 @@
       <c r="I80">
         <v>0.5333</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80">
         <v>0.12766028600000001</v>
       </c>
     </row>
@@ -3003,7 +3007,7 @@
       <c r="I81">
         <v>0.33729999999999999</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81">
         <v>0.12788863025</v>
       </c>
     </row>
@@ -3035,7 +3039,7 @@
       <c r="I82">
         <v>0.64080000000000004</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82">
         <v>0.12811697450000001</v>
       </c>
     </row>
@@ -3067,7 +3071,7 @@
       <c r="I83">
         <v>0.60960000000000003</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83">
         <v>0.12834531874999999</v>
       </c>
     </row>
@@ -3099,7 +3103,7 @@
       <c r="I84">
         <v>1.0399</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84">
         <v>0.128573663</v>
       </c>
     </row>
@@ -3131,7 +3135,7 @@
       <c r="I85">
         <v>0.86880000000000002</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85">
         <v>0.12880200724999999</v>
       </c>
     </row>
@@ -3163,7 +3167,7 @@
       <c r="I86">
         <v>-8.5300000000000001E-2</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86">
         <v>0.1290303515</v>
       </c>
     </row>
@@ -3195,7 +3199,7 @@
       <c r="I87">
         <v>0.15029999999999999</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87">
         <v>0.12925869574999899</v>
       </c>
     </row>
@@ -3227,7 +3231,7 @@
       <c r="I88">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88">
         <v>0.12948704</v>
       </c>
     </row>
@@ -3259,7 +3263,7 @@
       <c r="I89">
         <v>-7.0900000000000005E-2</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>0.12971538425000001</v>
       </c>
     </row>
@@ -3291,7 +3295,7 @@
       <c r="I90">
         <v>0.32229999999999998</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90">
         <v>0.12994372849999999</v>
       </c>
     </row>
@@ -3323,7 +3327,7 @@
       <c r="I91">
         <v>0.55669999999999997</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>0.13017207274999901</v>
       </c>
     </row>
@@ -3355,7 +3359,7 @@
       <c r="I92">
         <v>0.32190000000000002</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>0.13040041699999999</v>
       </c>
     </row>
@@ -3387,7 +3391,7 @@
       <c r="I93">
         <v>0.58760000000000001</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>0.13053773533333299</v>
       </c>
     </row>
@@ -3419,7 +3423,7 @@
       <c r="I94">
         <v>0.55210000000000004</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94">
         <v>0.13067505366666601</v>
       </c>
     </row>
@@ -3451,7 +3455,7 @@
       <c r="I95">
         <v>0.43780000000000002</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95">
         <v>0.13081237200000001</v>
       </c>
     </row>
@@ -3483,7 +3487,7 @@
       <c r="I96">
         <v>0.1381</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96">
         <v>0.13094969033333301</v>
       </c>
     </row>
@@ -3515,7 +3519,7 @@
       <c r="I97">
         <v>-0.312</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97">
         <v>0.13108700866666601</v>
       </c>
     </row>
@@ -3547,7 +3551,7 @@
       <c r="I98">
         <v>-3.4500000000000003E-2</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>0.131224327</v>
       </c>
     </row>
@@ -3579,7 +3583,7 @@
       <c r="I99">
         <v>0.3528</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>0.131361645333333</v>
       </c>
     </row>
@@ -3611,7 +3615,7 @@
       <c r="I100">
         <v>-0.31319999999999998</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>0.131498963666666</v>
       </c>
     </row>
@@ -3643,7 +3647,7 @@
       <c r="I101">
         <v>-0.80869999999999997</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>0.13163628199999999</v>
       </c>
     </row>
@@ -3675,7 +3679,7 @@
       <c r="I102">
         <v>-0.1055</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>0.13177360033333299</v>
       </c>
     </row>
@@ -3707,7 +3711,7 @@
       <c r="I103">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>0.13191091866666599</v>
       </c>
     </row>
@@ -3739,7 +3743,7 @@
       <c r="I104">
         <v>-6.1800000000000001E-2</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>0.13204823700000001</v>
       </c>
     </row>
@@ -3771,7 +3775,7 @@
       <c r="I105">
         <v>-0.24540000000000001</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105">
         <v>0.13222971591666599</v>
       </c>
     </row>
@@ -3803,7 +3807,7 @@
       <c r="I106">
         <v>0.13900000000000001</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106">
         <v>0.132411194833333</v>
       </c>
     </row>
@@ -3835,7 +3839,7 @@
       <c r="I107">
         <v>0.19089999999999999</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107">
         <v>0.13259267375</v>
       </c>
     </row>
@@ -3867,7 +3871,7 @@
       <c r="I108">
         <v>0.59509999999999996</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108">
         <v>0.13277415266666601</v>
       </c>
     </row>
@@ -3899,7 +3903,7 @@
       <c r="I109">
         <v>-8.2299999999999998E-2</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109">
         <v>0.13295563158333301</v>
       </c>
     </row>
@@ -3931,7 +3935,7 @@
       <c r="I110">
         <v>-0.29709999999999998</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110">
         <v>0.13313711049999999</v>
       </c>
     </row>
@@ -3963,7 +3967,7 @@
       <c r="I111">
         <v>-0.106</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111">
         <v>0.13331858941666599</v>
       </c>
     </row>
@@ -3995,7 +3999,7 @@
       <c r="I112">
         <v>0.46339999999999998</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112">
         <v>0.133500068333333</v>
       </c>
     </row>
@@ -4027,7 +4031,7 @@
       <c r="I113">
         <v>0.30909999999999999</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113">
         <v>0.13368154725</v>
       </c>
     </row>
@@ -4059,7 +4063,7 @@
       <c r="I114">
         <v>0.55259999999999998</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114">
         <v>0.13386302616666601</v>
       </c>
     </row>
@@ -4091,7 +4095,7 @@
       <c r="I115">
         <v>0.72250000000000003</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115">
         <v>0.13404450508333299</v>
       </c>
     </row>
@@ -4123,7 +4127,7 @@
       <c r="I116">
         <v>0.86350000000000005</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116">
         <v>0.13422598399999999</v>
       </c>
     </row>
@@ -4155,7 +4159,7 @@
       <c r="I117">
         <v>1.1067</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117">
         <v>0.134392740916666</v>
       </c>
     </row>
@@ -4187,7 +4191,7 @@
       <c r="I118">
         <v>0.31919999999999998</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118">
         <v>0.13455949783333301</v>
       </c>
     </row>
@@ -4219,7 +4223,7 @@
       <c r="I119">
         <v>0.21410000000000001</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119">
         <v>0.13472625475</v>
       </c>
     </row>
@@ -4251,7 +4255,7 @@
       <c r="I120">
         <v>-0.19020000000000001</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120">
         <v>0.13489301166666601</v>
       </c>
     </row>
@@ -4283,7 +4287,7 @@
       <c r="I121">
         <v>1.12E-2</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121">
         <v>0.13505976858333299</v>
       </c>
     </row>
@@ -4315,7 +4319,7 @@
       <c r="I122">
         <v>0.35460000000000003</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122">
         <v>0.1352265255</v>
       </c>
     </row>
@@ -4347,7 +4351,7 @@
       <c r="I123">
         <v>-8.9399999999999993E-2</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123">
         <v>0.13539328241666601</v>
       </c>
     </row>
@@ -4379,7 +4383,7 @@
       <c r="I124">
         <v>0.1024</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124">
         <v>0.13556003933333299</v>
       </c>
     </row>
@@ -4411,7 +4415,7 @@
       <c r="I125">
         <v>-4.07E-2</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125">
         <v>0.13572679625</v>
       </c>
     </row>
@@ -4443,7 +4447,7 @@
       <c r="I126">
         <v>0.27310000000000001</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126">
         <v>0.13589355316666599</v>
       </c>
     </row>
@@ -4475,7 +4479,7 @@
       <c r="I127">
         <v>0.3498</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127">
         <v>0.136060310083333</v>
       </c>
     </row>
@@ -4507,7 +4511,7 @@
       <c r="I128">
         <v>0.47349999999999998</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128">
         <v>0.13622706700000001</v>
       </c>
     </row>
@@ -4539,7 +4543,7 @@
       <c r="I129">
         <v>0.67249999999999999</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129">
         <v>0.13644580349999999</v>
       </c>
     </row>
@@ -4571,7 +4575,7 @@
       <c r="I130">
         <v>0.63160000000000005</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130">
         <v>0.13666454</v>
       </c>
     </row>
@@ -4603,7 +4607,7 @@
       <c r="I131">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131">
         <v>0.13688327650000001</v>
       </c>
     </row>
@@ -4635,7 +4639,7 @@
       <c r="I132">
         <v>-0.1338</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132">
         <v>0.13710201299999999</v>
       </c>
     </row>
@@ -4667,7 +4671,7 @@
       <c r="I133">
         <v>-0.91390000000000005</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J133">
         <v>0.13732074950000001</v>
       </c>
     </row>
@@ -4699,7 +4703,7 @@
       <c r="I134">
         <v>-0.877</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134">
         <v>0.13753948599999999</v>
       </c>
     </row>
@@ -4731,7 +4735,7 @@
       <c r="I135">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135">
         <v>0.1377582225</v>
       </c>
     </row>
@@ -4763,7 +4767,7 @@
       <c r="I136">
         <v>-0.1143</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136">
         <v>0.13797695900000001</v>
       </c>
     </row>
@@ -4795,7 +4799,7 @@
       <c r="I137">
         <v>-7.1999999999999998E-3</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137">
         <v>0.13819569549999999</v>
       </c>
     </row>
@@ -4827,7 +4831,7 @@
       <c r="I138">
         <v>-0.83220000000000005</v>
       </c>
-      <c r="J138" s="3">
+      <c r="J138">
         <v>0.138414432</v>
       </c>
     </row>
@@ -4859,7 +4863,7 @@
       <c r="I139">
         <v>-0.1908</v>
       </c>
-      <c r="J139" s="3">
+      <c r="J139">
         <v>0.13863316849999999</v>
       </c>
     </row>
@@ -4891,7 +4895,7 @@
       <c r="I140">
         <v>-0.58009999999999995</v>
       </c>
-      <c r="J140" s="3">
+      <c r="J140">
         <v>0.138851905</v>
       </c>
     </row>
@@ -4923,7 +4927,7 @@
       <c r="I141">
         <v>-0.75990000000000002</v>
       </c>
-      <c r="J141" s="3">
+      <c r="J141">
         <v>0.13903720208333301</v>
       </c>
     </row>
@@ -4955,7 +4959,7 @@
       <c r="I142">
         <v>-0.28549999999999998</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142">
         <v>0.13922249916666601</v>
       </c>
     </row>
@@ -4987,7 +4991,7 @@
       <c r="I143">
         <v>-7.7899999999999997E-2</v>
       </c>
-      <c r="J143" s="3">
+      <c r="J143">
         <v>0.13940779624999999</v>
       </c>
     </row>
@@ -5019,7 +5023,7 @@
       <c r="I144">
         <v>-0.33040000000000003</v>
       </c>
-      <c r="J144" s="3">
+      <c r="J144">
         <v>0.139593093333333</v>
       </c>
     </row>
@@ -5051,7 +5055,7 @@
       <c r="I145">
         <v>0.308</v>
       </c>
-      <c r="J145" s="3">
+      <c r="J145">
         <v>0.13977839041666601</v>
       </c>
     </row>
@@ -5083,7 +5087,7 @@
       <c r="I146">
         <v>0.50539999999999996</v>
       </c>
-      <c r="J146" s="3">
+      <c r="J146">
         <v>0.13996368749999999</v>
       </c>
     </row>
@@ -5115,7 +5119,7 @@
       <c r="I147">
         <v>-0.22220000000000001</v>
       </c>
-      <c r="J147" s="3">
+      <c r="J147">
         <v>0.140148984583333</v>
       </c>
     </row>
@@ -5147,7 +5151,7 @@
       <c r="I148">
         <v>-0.33929999999999999</v>
       </c>
-      <c r="J148" s="3">
+      <c r="J148">
         <v>0.14033428166666601</v>
       </c>
     </row>
@@ -5179,7 +5183,7 @@
       <c r="I149">
         <v>-0.55049999999999999</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149">
         <v>0.14051957875000001</v>
       </c>
     </row>
@@ -5211,7 +5215,7 @@
       <c r="I150">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150">
         <v>0.14070487583333299</v>
       </c>
     </row>
@@ -5243,7 +5247,7 @@
       <c r="I151">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151">
         <v>0.140890172916666</v>
       </c>
     </row>
@@ -5275,7 +5279,7 @@
       <c r="I152">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152">
         <v>0.14107547000000001</v>
       </c>
     </row>
@@ -5307,7 +5311,7 @@
       <c r="I153">
         <v>0.1167</v>
       </c>
-      <c r="J153" s="3">
+      <c r="J153">
         <v>0.14126471433333301</v>
       </c>
     </row>
@@ -5339,7 +5343,7 @@
       <c r="I154">
         <v>-0.90100000000000002</v>
       </c>
-      <c r="J154" s="3">
+      <c r="J154">
         <v>0.14145395866666599</v>
       </c>
     </row>
@@ -5371,7 +5375,7 @@
       <c r="I155">
         <v>-0.16270000000000001</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J155">
         <v>0.141643203</v>
       </c>
     </row>
@@ -5403,7 +5407,7 @@
       <c r="I156">
         <v>-0.5252</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J156">
         <v>0.141832447333333</v>
       </c>
     </row>
@@ -5435,7 +5439,7 @@
       <c r="I157">
         <v>-0.22339999999999999</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J157">
         <v>0.14202169166666601</v>
       </c>
     </row>
@@ -5467,7 +5471,7 @@
       <c r="I158">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158">
         <v>0.14221093600000001</v>
       </c>
     </row>
@@ -5499,7 +5503,7 @@
       <c r="I159">
         <v>0.49780000000000002</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159">
         <v>0.14240018033333299</v>
       </c>
     </row>
@@ -5531,7 +5535,7 @@
       <c r="I160">
         <v>0.19339999999999999</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160">
         <v>0.14258942466666599</v>
       </c>
     </row>
@@ -5563,7 +5567,7 @@
       <c r="I161">
         <v>-0.69750000000000001</v>
       </c>
-      <c r="J161" s="3">
+      <c r="J161">
         <v>0.142778669</v>
       </c>
     </row>
@@ -5595,7 +5599,7 @@
       <c r="I162">
         <v>-1.4827999999999999</v>
       </c>
-      <c r="J162" s="3">
+      <c r="J162">
         <v>0.142967913333333</v>
       </c>
     </row>
@@ -5627,7 +5631,7 @@
       <c r="I163">
         <v>-1.6454</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J163">
         <v>0.14315715766666601</v>
       </c>
     </row>
@@ -5659,7 +5663,7 @@
       <c r="I164">
         <v>-0.94059999999999999</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J164">
         <v>0.14334640200000001</v>
       </c>
     </row>
@@ -5691,7 +5695,7 @@
       <c r="I165">
         <v>-1.0108999999999999</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J165">
         <v>0.14340812116666601</v>
       </c>
     </row>
@@ -5723,7 +5727,7 @@
       <c r="I166">
         <v>-0.89700000000000002</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J166">
         <v>0.14346984033333299</v>
       </c>
     </row>
@@ -5755,7 +5759,7 @@
       <c r="I167">
         <v>-0.99070000000000003</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J167">
         <v>0.14353155949999999</v>
       </c>
     </row>
@@ -5787,7 +5791,7 @@
       <c r="I168">
         <v>-1.2874000000000001</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J168">
         <v>0.14359327866666599</v>
       </c>
     </row>
@@ -5819,7 +5823,7 @@
       <c r="I169">
         <v>-0.441</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J169">
         <v>0.14365499783333299</v>
       </c>
     </row>
@@ -5851,7 +5855,7 @@
       <c r="I170">
         <v>-0.15840000000000001</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J170">
         <v>0.14371671699999999</v>
       </c>
     </row>
@@ -5883,7 +5887,7 @@
       <c r="I171">
         <v>-0.62819999999999998</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J171">
         <v>0.143778436166666</v>
       </c>
     </row>
@@ -5915,7 +5919,7 @@
       <c r="I172">
         <v>-0.56079999999999997</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J172">
         <v>0.143840155333333</v>
       </c>
     </row>
@@ -5947,7 +5951,7 @@
       <c r="I173">
         <v>-0.44550000000000001</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J173">
         <v>0.1439018745</v>
       </c>
     </row>
@@ -5979,7 +5983,7 @@
       <c r="I174">
         <v>-0.4526</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J174">
         <v>0.143963593666666</v>
       </c>
     </row>
@@ -6011,7 +6015,7 @@
       <c r="I175">
         <v>-0.46929999999999999</v>
       </c>
-      <c r="J175" s="3">
+      <c r="J175">
         <v>0.144025312833333</v>
       </c>
     </row>
@@ -6043,7 +6047,7 @@
       <c r="I176">
         <v>-0.21529999999999999</v>
       </c>
-      <c r="J176" s="3">
+      <c r="J176">
         <v>0.144087032</v>
       </c>
     </row>
@@ -6075,7 +6079,7 @@
       <c r="I177">
         <v>-6.7400000000000002E-2</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J177">
         <v>0.14456571908333299</v>
       </c>
     </row>
@@ -6107,7 +6111,7 @@
       <c r="I178">
         <v>0.2293</v>
       </c>
-      <c r="J178" s="3">
+      <c r="J178">
         <v>0.145044406166666</v>
       </c>
     </row>
@@ -6139,7 +6143,7 @@
       <c r="I179">
         <v>0.46360000000000001</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J179">
         <v>0.14552309325000001</v>
       </c>
     </row>
@@ -6171,7 +6175,7 @@
       <c r="I180">
         <v>0.76349999999999996</v>
       </c>
-      <c r="J180" s="3">
+      <c r="J180">
         <v>0.146001780333333</v>
       </c>
     </row>
@@ -6203,7 +6207,7 @@
       <c r="I181">
         <v>0.30840000000000001</v>
       </c>
-      <c r="J181" s="3">
+      <c r="J181">
         <v>0.14648046741666601</v>
       </c>
     </row>
@@ -6235,7 +6239,7 @@
       <c r="I182">
         <v>-1.9E-3</v>
       </c>
-      <c r="J182" s="3">
+      <c r="J182">
         <v>0.14695915449999999</v>
       </c>
     </row>
@@ -6267,7 +6271,7 @@
       <c r="I183">
         <v>-0.31709999999999999</v>
       </c>
-      <c r="J183" s="3">
+      <c r="J183">
         <v>0.14743784158333301</v>
       </c>
     </row>
@@ -6299,7 +6303,7 @@
       <c r="I184">
         <v>0.49059999999999998</v>
       </c>
-      <c r="J184" s="3">
+      <c r="J184">
         <v>0.14791652866666599</v>
       </c>
     </row>
@@ -6331,7 +6335,7 @@
       <c r="I185">
         <v>0.57569999999999999</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J185">
         <v>0.14839521575</v>
       </c>
     </row>
@@ -6363,7 +6367,7 @@
       <c r="I186">
         <v>0.20799999999999999</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J186">
         <v>0.14887390283333299</v>
       </c>
     </row>
@@ -6395,7 +6399,7 @@
       <c r="I187">
         <v>-0.43730000000000002</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J187">
         <v>0.149352589916666</v>
       </c>
     </row>
@@ -6427,7 +6431,7 @@
       <c r="I188">
         <v>-1.08</v>
       </c>
-      <c r="J188" s="3">
+      <c r="J188">
         <v>0.14983127700000001</v>
       </c>
     </row>
@@ -6459,7 +6463,7 @@
       <c r="I189">
         <v>-0.95730000000000004</v>
       </c>
-      <c r="J189" s="3">
+      <c r="J189">
         <v>0.150006629916666</v>
       </c>
     </row>
@@ -6491,7 +6495,7 @@
       <c r="I190">
         <v>-0.70369999999999999</v>
       </c>
-      <c r="J190" s="3">
+      <c r="J190">
         <v>0.15018198283333301</v>
       </c>
     </row>
@@ -6523,7 +6527,7 @@
       <c r="I191">
         <v>-0.4052</v>
       </c>
-      <c r="J191" s="3">
+      <c r="J191">
         <v>0.15035733574999999</v>
       </c>
     </row>
@@ -6555,7 +6559,7 @@
       <c r="I192">
         <v>0.19670000000000001</v>
       </c>
-      <c r="J192" s="3">
+      <c r="J192">
         <v>0.150532688666666</v>
       </c>
     </row>
@@ -6587,7 +6591,7 @@
       <c r="I193">
         <v>0.54490000000000005</v>
       </c>
-      <c r="J193" s="3">
+      <c r="J193">
         <v>0.15070804158333301</v>
       </c>
     </row>
@@ -6619,7 +6623,7 @@
       <c r="I194">
         <v>0.96279999999999999</v>
       </c>
-      <c r="J194" s="3">
+      <c r="J194">
         <v>0.15088339449999999</v>
       </c>
     </row>
@@ -6651,7 +6655,7 @@
       <c r="I195">
         <v>1.2161</v>
       </c>
-      <c r="J195" s="3">
+      <c r="J195">
         <v>0.151058747416666</v>
       </c>
     </row>
@@ -6683,7 +6687,7 @@
       <c r="I196">
         <v>1.1140000000000001</v>
       </c>
-      <c r="J196" s="3">
+      <c r="J196">
         <v>0.15123410033333301</v>
       </c>
     </row>
@@ -6715,7 +6719,7 @@
       <c r="I197">
         <v>0.75270000000000004</v>
       </c>
-      <c r="J197" s="3">
+      <c r="J197">
         <v>0.15140945324999999</v>
       </c>
     </row>
@@ -6747,7 +6751,7 @@
       <c r="I198">
         <v>0.4758</v>
       </c>
-      <c r="J198" s="3">
+      <c r="J198">
         <v>0.151584806166666</v>
       </c>
     </row>
@@ -6779,7 +6783,7 @@
       <c r="I199">
         <v>0.36820000000000003</v>
       </c>
-      <c r="J199" s="3">
+      <c r="J199">
         <v>0.15176015908333301</v>
       </c>
     </row>
@@ -6811,7 +6815,7 @@
       <c r="I200">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="J200" s="3">
+      <c r="J200">
         <v>0.15193551199999999</v>
       </c>
     </row>
@@ -6843,7 +6847,7 @@
       <c r="I201">
         <v>-0.41439999999999999</v>
       </c>
-      <c r="J201" s="3">
+      <c r="J201">
         <v>0.152322694583333</v>
       </c>
     </row>
@@ -6875,7 +6879,7 @@
       <c r="I202">
         <v>-0.72</v>
       </c>
-      <c r="J202" s="3">
+      <c r="J202">
         <v>0.15270987716666601</v>
       </c>
     </row>
@@ -6907,7 +6911,7 @@
       <c r="I203">
         <v>-0.68989999999999996</v>
       </c>
-      <c r="J203" s="3">
+      <c r="J203">
         <v>0.15309705974999999</v>
       </c>
     </row>
@@ -6939,7 +6943,7 @@
       <c r="I204">
         <v>-0.1115</v>
       </c>
-      <c r="J204" s="3">
+      <c r="J204">
         <v>0.15348424233333299</v>
       </c>
     </row>
@@ -6971,7 +6975,7 @@
       <c r="I205">
         <v>-0.26069999999999999</v>
       </c>
-      <c r="J205" s="3">
+      <c r="J205">
         <v>0.153871424916666</v>
       </c>
     </row>
@@ -7003,7 +7007,7 @@
       <c r="I206">
         <v>0.11219999999999999</v>
       </c>
-      <c r="J206" s="3">
+      <c r="J206">
         <v>0.15425860749999901</v>
       </c>
     </row>
@@ -7035,7 +7039,7 @@
       <c r="I207">
         <v>0.219</v>
       </c>
-      <c r="J207" s="3">
+      <c r="J207">
         <v>0.15464579008333301</v>
       </c>
     </row>
@@ -7067,7 +7071,7 @@
       <c r="I208">
         <v>0.32450000000000001</v>
       </c>
-      <c r="J208" s="3">
+      <c r="J208">
         <v>0.15503297266666599</v>
       </c>
     </row>
@@ -7099,7 +7103,7 @@
       <c r="I209">
         <v>0.64700000000000002</v>
       </c>
-      <c r="J209" s="3">
+      <c r="J209">
         <v>0.15542015525</v>
       </c>
     </row>
@@ -7131,7 +7135,7 @@
       <c r="I210">
         <v>0.92910000000000004</v>
       </c>
-      <c r="J210" s="3">
+      <c r="J210">
         <v>0.155807337833333</v>
       </c>
     </row>
@@ -7163,7 +7167,7 @@
       <c r="I211">
         <v>1.0089999999999999</v>
       </c>
-      <c r="J211" s="3">
+      <c r="J211">
         <v>0.15619452041666601</v>
       </c>
     </row>
@@ -7195,7 +7199,7 @@
       <c r="I212">
         <v>1.0683</v>
       </c>
-      <c r="J212" s="3">
+      <c r="J212">
         <v>0.15658170299999999</v>
       </c>
     </row>
@@ -7227,7 +7231,7 @@
       <c r="I213">
         <v>0.78320000000000001</v>
       </c>
-      <c r="J213" s="3">
+      <c r="J213">
         <v>0.15679246666666599</v>
       </c>
     </row>
@@ -7259,7 +7263,7 @@
       <c r="I214">
         <v>0.86380000000000001</v>
       </c>
-      <c r="J214" s="3">
+      <c r="J214">
         <v>0.15700323033333299</v>
       </c>
     </row>
@@ -7291,7 +7295,7 @@
       <c r="I215">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J215" s="3">
+      <c r="J215">
         <v>0.157213994</v>
       </c>
     </row>
@@ -7323,7 +7327,7 @@
       <c r="I216">
         <v>-0.17879999999999999</v>
       </c>
-      <c r="J216" s="3">
+      <c r="J216">
         <v>0.157424757666666</v>
       </c>
     </row>
@@ -7355,7 +7359,7 @@
       <c r="I217">
         <v>-0.36209999999999998</v>
       </c>
-      <c r="J217" s="3">
+      <c r="J217">
         <v>0.157635521333333</v>
       </c>
     </row>
@@ -7387,7 +7391,7 @@
       <c r="I218">
         <v>-0.91700000000000004</v>
       </c>
-      <c r="J218" s="3">
+      <c r="J218">
         <v>0.157846284999999</v>
       </c>
     </row>
@@ -7419,7 +7423,7 @@
       <c r="I219">
         <v>-0.56679999999999997</v>
       </c>
-      <c r="J219" s="3">
+      <c r="J219">
         <v>0.15805704866666601</v>
       </c>
     </row>
@@ -7451,7 +7455,7 @@
       <c r="I220">
         <v>-0.90720000000000001</v>
       </c>
-      <c r="J220" s="3">
+      <c r="J220">
         <v>0.15826781233333301</v>
       </c>
     </row>
@@ -7483,7 +7487,7 @@
       <c r="I221">
         <v>-0.91900000000000004</v>
       </c>
-      <c r="J221" s="3">
+      <c r="J221">
         <v>0.15847857599999901</v>
       </c>
     </row>
@@ -7515,7 +7519,7 @@
       <c r="I222">
         <v>-1.1749000000000001</v>
       </c>
-      <c r="J222" s="3">
+      <c r="J222">
         <v>0.15868933966666601</v>
       </c>
     </row>
@@ -7547,7 +7551,7 @@
       <c r="I223">
         <v>-1.1194</v>
       </c>
-      <c r="J223" s="3">
+      <c r="J223">
         <v>0.15890010333333299</v>
       </c>
     </row>
@@ -7579,7 +7583,7 @@
       <c r="I224">
         <v>-0.40949999999999998</v>
       </c>
-      <c r="J224" s="3">
+      <c r="J224">
         <v>0.15911086699999999</v>
       </c>
     </row>
@@ -7611,7 +7615,7 @@
       <c r="I225">
         <v>-0.36549999999999999</v>
       </c>
-      <c r="J225" s="3">
+      <c r="J225">
         <v>0.159293971916666</v>
       </c>
     </row>
@@ -7643,7 +7647,7 @@
       <c r="I226">
         <v>-0.34539999999999998</v>
       </c>
-      <c r="J226" s="3">
+      <c r="J226">
         <v>0.15947707683333301</v>
       </c>
     </row>
@@ -7675,7 +7679,7 @@
       <c r="I227">
         <v>0.56069999999999998</v>
       </c>
-      <c r="J227" s="3">
+      <c r="J227">
         <v>0.15966018174999999</v>
       </c>
     </row>
@@ -7707,7 +7711,7 @@
       <c r="I228">
         <v>0.87909999999999999</v>
       </c>
-      <c r="J228" s="3">
+      <c r="J228">
         <v>0.159843286666666</v>
       </c>
     </row>
@@ -7739,7 +7743,7 @@
       <c r="I229">
         <v>1.4008</v>
       </c>
-      <c r="J229" s="3">
+      <c r="J229">
         <v>0.16002639158333301</v>
       </c>
     </row>
@@ -7771,7 +7775,7 @@
       <c r="I230">
         <v>0.89470000000000005</v>
       </c>
-      <c r="J230" s="3">
+      <c r="J230">
         <v>0.16020949649999999</v>
       </c>
     </row>
@@ -7803,7 +7807,7 @@
       <c r="I231">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J231" s="3">
+      <c r="J231">
         <v>0.160392601416666</v>
       </c>
     </row>
@@ -7835,7 +7839,7 @@
       <c r="I232">
         <v>0.51849999999999996</v>
       </c>
-      <c r="J232" s="3">
+      <c r="J232">
         <v>0.16057570633333301</v>
       </c>
     </row>
@@ -7867,7 +7871,7 @@
       <c r="I233">
         <v>0.78439999999999999</v>
       </c>
-      <c r="J233" s="3">
+      <c r="J233">
         <v>0.16075881124999999</v>
       </c>
     </row>
@@ -7899,7 +7903,7 @@
       <c r="I234">
         <v>0.94879999999999998</v>
       </c>
-      <c r="J234" s="3">
+      <c r="J234">
         <v>0.160941916166666</v>
       </c>
     </row>
@@ -7931,7 +7935,7 @@
       <c r="I235">
         <v>1.0117</v>
       </c>
-      <c r="J235" s="3">
+      <c r="J235">
         <v>0.16112502108333299</v>
       </c>
     </row>
@@ -7963,7 +7967,7 @@
       <c r="I236">
         <v>0.69</v>
       </c>
-      <c r="J236" s="3">
+      <c r="J236">
         <v>0.161308126</v>
       </c>
     </row>
@@ -7995,7 +7999,7 @@
       <c r="I237">
         <v>0.5101</v>
       </c>
-      <c r="J237" s="3">
+      <c r="J237">
         <v>0.16173382141666601</v>
       </c>
     </row>
@@ -8027,7 +8031,7 @@
       <c r="I238">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="J238" s="3">
+      <c r="J238">
         <v>0.16215951683333299</v>
       </c>
     </row>
@@ -8059,7 +8063,7 @@
       <c r="I239">
         <v>-0.2402</v>
       </c>
-      <c r="J239" s="3">
+      <c r="J239">
         <v>0.16258521225</v>
       </c>
     </row>
@@ -8091,7 +8095,7 @@
       <c r="I240">
         <v>8.48E-2</v>
       </c>
-      <c r="J240" s="3">
+      <c r="J240">
         <v>0.16301090766666601</v>
       </c>
     </row>
@@ -8123,7 +8127,7 @@
       <c r="I241">
         <v>-0.47110000000000002</v>
       </c>
-      <c r="J241" s="3">
+      <c r="J241">
         <v>0.16343660308333299</v>
       </c>
     </row>
@@ -8155,7 +8159,7 @@
       <c r="I242">
         <v>-0.64470000000000005</v>
       </c>
-      <c r="J242" s="3">
+      <c r="J242">
         <v>0.1638622985</v>
       </c>
     </row>
@@ -8187,7 +8191,7 @@
       <c r="I243">
         <v>-0.79359999999999997</v>
       </c>
-      <c r="J243" s="3">
+      <c r="J243">
         <v>0.16428799391666599</v>
       </c>
     </row>
@@ -8219,7 +8223,7 @@
       <c r="I244">
         <v>-1.23E-2</v>
       </c>
-      <c r="J244" s="3">
+      <c r="J244">
         <v>0.164713689333333</v>
       </c>
     </row>
@@ -8251,7 +8255,7 @@
       <c r="I245">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J245" s="3">
+      <c r="J245">
         <v>0.16513938475000001</v>
       </c>
     </row>
@@ -8283,7 +8287,7 @@
       <c r="I246">
         <v>0.4647</v>
       </c>
-      <c r="J246" s="3">
+      <c r="J246">
         <v>0.16556508016666599</v>
       </c>
     </row>
@@ -8315,7 +8319,7 @@
       <c r="I247">
         <v>0.52829999999999999</v>
       </c>
-      <c r="J247" s="3">
+      <c r="J247">
         <v>0.165990775583333</v>
       </c>
     </row>
@@ -8347,7 +8351,7 @@
       <c r="I248">
         <v>1.2769999999999999</v>
       </c>
-      <c r="J248" s="3">
+      <c r="J248">
         <v>0.16641647100000001</v>
       </c>
     </row>
@@ -8379,7 +8383,7 @@
       <c r="I249">
         <v>1.1065</v>
       </c>
-      <c r="J249" s="3">
+      <c r="J249">
         <v>0.16657163158333299</v>
       </c>
     </row>
@@ -8411,7 +8415,7 @@
       <c r="I250">
         <v>0.18010000000000001</v>
       </c>
-      <c r="J250" s="3">
+      <c r="J250">
         <v>0.166726792166666</v>
       </c>
     </row>
@@ -8443,7 +8447,7 @@
       <c r="I251">
         <v>0.51239999999999997</v>
       </c>
-      <c r="J251" s="3">
+      <c r="J251">
         <v>0.16688195275000001</v>
       </c>
     </row>
@@ -8475,7 +8479,7 @@
       <c r="I252">
         <v>0.49380000000000002</v>
       </c>
-      <c r="J252" s="3">
+      <c r="J252">
         <v>0.16703711333333299</v>
       </c>
     </row>
@@ -8507,7 +8511,7 @@
       <c r="I253">
         <v>0.56810000000000005</v>
       </c>
-      <c r="J253" s="3">
+      <c r="J253">
         <v>0.167192273916666</v>
       </c>
     </row>
@@ -8539,7 +8543,7 @@
       <c r="I254">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="J254" s="3">
+      <c r="J254">
         <v>0.1673474345</v>
       </c>
     </row>
@@ -8571,7 +8575,7 @@
       <c r="I255">
         <v>0.31530000000000002</v>
       </c>
-      <c r="J255" s="3">
+      <c r="J255">
         <v>0.16750259508333301</v>
       </c>
     </row>
@@ -8603,7 +8607,7 @@
       <c r="I256">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="J256" s="3">
+      <c r="J256">
         <v>0.16765775566666599</v>
       </c>
     </row>
@@ -8635,7 +8639,7 @@
       <c r="I257">
         <v>-0.15640000000000001</v>
       </c>
-      <c r="J257" s="3">
+      <c r="J257">
         <v>0.16781291625</v>
       </c>
     </row>
@@ -8667,7 +8671,7 @@
       <c r="I258">
         <v>0.34660000000000002</v>
       </c>
-      <c r="J258" s="3">
+      <c r="J258">
         <v>0.16796807683333301</v>
       </c>
     </row>
@@ -8699,7 +8703,7 @@
       <c r="I259">
         <v>0.48559999999999998</v>
       </c>
-      <c r="J259" s="3">
+      <c r="J259">
         <v>0.16812323741666599</v>
       </c>
     </row>
@@ -8731,7 +8735,7 @@
       <c r="I260">
         <v>0.1152</v>
       </c>
-      <c r="J260" s="3">
+      <c r="J260">
         <v>0.168278398</v>
       </c>
     </row>
@@ -8763,7 +8767,7 @@
       <c r="I261">
         <v>0.3473</v>
       </c>
-      <c r="J261" s="3">
+      <c r="J261">
         <v>0.168420984083333</v>
       </c>
     </row>
@@ -8795,7 +8799,7 @@
       <c r="I262">
         <v>0.1009</v>
       </c>
-      <c r="J262" s="3">
+      <c r="J262">
         <v>0.16856357016666601</v>
       </c>
     </row>
@@ -8827,7 +8831,7 @@
       <c r="I263">
         <v>-0.26790000000000003</v>
       </c>
-      <c r="J263" s="3">
+      <c r="J263">
         <v>0.16870615624999999</v>
       </c>
     </row>
@@ -8859,7 +8863,7 @@
       <c r="I264">
         <v>-0.43319999999999997</v>
       </c>
-      <c r="J264" s="3">
+      <c r="J264">
         <v>0.168848742333333</v>
       </c>
     </row>
@@ -8891,7 +8895,7 @@
       <c r="I265">
         <v>-1.0367</v>
       </c>
-      <c r="J265" s="3">
+      <c r="J265">
         <v>0.168991328416666</v>
       </c>
     </row>
@@ -8923,7 +8927,7 @@
       <c r="I266">
         <v>-1.0611999999999999</v>
       </c>
-      <c r="J266" s="3">
+      <c r="J266">
         <v>0.16913391449999901</v>
       </c>
     </row>
@@ -8955,7 +8959,7 @@
       <c r="I267">
         <v>-0.95250000000000001</v>
       </c>
-      <c r="J267" s="3">
+      <c r="J267">
         <v>0.16927650058333299</v>
       </c>
     </row>
@@ -8987,7 +8991,7 @@
       <c r="I268">
         <v>-0.54610000000000003</v>
       </c>
-      <c r="J268" s="3">
+      <c r="J268">
         <v>0.169419086666666</v>
       </c>
     </row>
@@ -9019,7 +9023,7 @@
       <c r="I269">
         <v>-0.25829999999999997</v>
       </c>
-      <c r="J269" s="3">
+      <c r="J269">
         <v>0.16956167275</v>
       </c>
     </row>
@@ -9051,7 +9055,7 @@
       <c r="I270">
         <v>0.17380000000000001</v>
       </c>
-      <c r="J270" s="3">
+      <c r="J270">
         <v>0.16970425883333301</v>
       </c>
     </row>
@@ -9083,7 +9087,7 @@
       <c r="I271">
         <v>0.1925</v>
       </c>
-      <c r="J271" s="3">
+      <c r="J271">
         <v>0.16984684491666599</v>
       </c>
     </row>
@@ -9115,7 +9119,7 @@
       <c r="I272">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="J272" s="3">
+      <c r="J272">
         <v>0.169989431</v>
       </c>
     </row>
@@ -9147,7 +9151,7 @@
       <c r="I273">
         <v>-0.1057</v>
       </c>
-      <c r="J273" s="3">
+      <c r="J273">
         <v>0.17010534450000001</v>
       </c>
     </row>
@@ -9179,7 +9183,7 @@
       <c r="I274">
         <v>-0.31340000000000001</v>
       </c>
-      <c r="J274" s="3">
+      <c r="J274">
         <v>0.17022125799999999</v>
       </c>
     </row>
@@ -9211,7 +9215,7 @@
       <c r="I275">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="J275" s="3">
+      <c r="J275">
         <v>0.1703371715</v>
       </c>
     </row>
@@ -9243,7 +9247,7 @@
       <c r="I276">
         <v>-0.71879999999999999</v>
       </c>
-      <c r="J276" s="3">
+      <c r="J276">
         <v>0.170453085</v>
       </c>
     </row>
@@ -9275,7 +9279,7 @@
       <c r="I277">
         <v>-1.1039000000000001</v>
       </c>
-      <c r="J277" s="3">
+      <c r="J277">
         <v>0.17056899849999901</v>
       </c>
     </row>
@@ -9307,7 +9311,7 @@
       <c r="I278">
         <v>-0.93600000000000005</v>
       </c>
-      <c r="J278" s="3">
+      <c r="J278">
         <v>0.17068491199999999</v>
       </c>
     </row>
@@ -9339,7 +9343,7 @@
       <c r="I279">
         <v>-0.45850000000000002</v>
       </c>
-      <c r="J279" s="3">
+      <c r="J279">
         <v>0.1708008255</v>
       </c>
     </row>
@@ -9371,7 +9375,7 @@
       <c r="I280">
         <v>-0.1472</v>
       </c>
-      <c r="J280" s="3">
+      <c r="J280">
         <v>0.17091673899999901</v>
       </c>
     </row>
@@ -9403,7 +9407,7 @@
       <c r="I281">
         <v>0.4743</v>
       </c>
-      <c r="J281" s="3">
+      <c r="J281">
         <v>0.17103265249999999</v>
       </c>
     </row>
@@ -9435,7 +9439,7 @@
       <c r="I282">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="J282" s="3">
+      <c r="J282">
         <v>0.171148566</v>
       </c>
     </row>
@@ -9467,7 +9471,7 @@
       <c r="I283">
         <v>0.15379999999999999</v>
       </c>
-      <c r="J283" s="3">
+      <c r="J283">
         <v>0.17126447949999901</v>
       </c>
     </row>
@@ -9499,7 +9503,7 @@
       <c r="I284">
         <v>-0.40310000000000001</v>
       </c>
-      <c r="J284" s="3">
+      <c r="J284">
         <v>0.17138039299999999</v>
       </c>
     </row>
@@ -9531,7 +9535,7 @@
       <c r="I285">
         <v>-0.4783</v>
       </c>
-      <c r="J285" s="3">
+      <c r="J285">
         <v>0.17152104574999999</v>
       </c>
     </row>
@@ -9563,7 +9567,7 @@
       <c r="I286">
         <v>-0.27589999999999998</v>
       </c>
-      <c r="J286" s="3">
+      <c r="J286">
         <v>0.17166169849999999</v>
       </c>
     </row>
@@ -9595,7 +9599,7 @@
       <c r="I287">
         <v>-0.18659999999999999</v>
       </c>
-      <c r="J287" s="3">
+      <c r="J287">
         <v>0.17180235124999901</v>
       </c>
     </row>
@@ -9627,7 +9631,7 @@
       <c r="I288">
         <v>-0.75449999999999995</v>
       </c>
-      <c r="J288" s="3">
+      <c r="J288">
         <v>0.17194300399999901</v>
       </c>
     </row>
@@ -9659,7 +9663,7 @@
       <c r="I289">
         <v>0.1847</v>
       </c>
-      <c r="J289" s="3">
+      <c r="J289">
         <v>0.17208365674999901</v>
       </c>
     </row>
@@ -9691,7 +9695,7 @@
       <c r="I290">
         <v>0.13700000000000001</v>
       </c>
-      <c r="J290" s="3">
+      <c r="J290">
         <v>0.17222430950000001</v>
       </c>
     </row>
@@ -9723,7 +9727,7 @@
       <c r="I291">
         <v>0.16209999999999999</v>
       </c>
-      <c r="J291" s="3">
+      <c r="J291">
         <v>0.17236496225</v>
       </c>
     </row>
@@ -9755,7 +9759,7 @@
       <c r="I292">
         <v>-0.219</v>
       </c>
-      <c r="J292" s="3">
+      <c r="J292">
         <v>0.172505615</v>
       </c>
     </row>
@@ -9787,7 +9791,7 @@
       <c r="I293">
         <v>-0.31950000000000001</v>
       </c>
-      <c r="J293" s="3">
+      <c r="J293">
         <v>0.17264626775</v>
       </c>
     </row>
@@ -9819,7 +9823,7 @@
       <c r="I294">
         <v>-0.15559999999999999</v>
       </c>
-      <c r="J294" s="3">
+      <c r="J294">
         <v>0.1727869205</v>
       </c>
     </row>
@@ -9851,7 +9855,7 @@
       <c r="I295">
         <v>-0.48099999999999998</v>
       </c>
-      <c r="J295" s="3">
+      <c r="J295">
         <v>0.17292757324999999</v>
       </c>
     </row>
@@ -9883,7 +9887,7 @@
       <c r="I296">
         <v>0.1663</v>
       </c>
-      <c r="J296" s="3">
+      <c r="J296">
         <v>0.17306822599999999</v>
       </c>
     </row>
@@ -9915,7 +9919,7 @@
       <c r="I297">
         <v>0.2019</v>
       </c>
-      <c r="J297" s="3">
+      <c r="J297">
         <v>0.17314074391666601</v>
       </c>
     </row>
@@ -9947,7 +9951,7 @@
       <c r="I298">
         <v>0.1399</v>
       </c>
-      <c r="J298" s="3">
+      <c r="J298">
         <v>0.17321326183333299</v>
       </c>
     </row>
@@ -9979,7 +9983,7 @@
       <c r="I299">
         <v>0.1439</v>
       </c>
-      <c r="J299" s="3">
+      <c r="J299">
         <v>0.17328577974999901</v>
       </c>
     </row>
@@ -10011,7 +10015,7 @@
       <c r="I300">
         <v>0.1467</v>
       </c>
-      <c r="J300" s="3">
+      <c r="J300">
         <v>0.17335829766666599</v>
       </c>
     </row>
@@ -10043,7 +10047,7 @@
       <c r="I301">
         <v>0.36770000000000003</v>
       </c>
-      <c r="J301" s="3">
+      <c r="J301">
         <v>0.17343081558333301</v>
       </c>
     </row>
@@ -10075,7 +10079,7 @@
       <c r="I302">
         <v>0.6573</v>
       </c>
-      <c r="J302" s="3">
+      <c r="J302">
         <v>0.1735033335</v>
       </c>
     </row>
@@ -10107,7 +10111,7 @@
       <c r="I303">
         <v>0.49320000000000003</v>
       </c>
-      <c r="J303" s="3">
+      <c r="J303">
         <v>0.17357585141666601</v>
       </c>
     </row>
@@ -10139,7 +10143,7 @@
       <c r="I304">
         <v>-0.1084</v>
       </c>
-      <c r="J304" s="3">
+      <c r="J304">
         <v>0.173648369333333</v>
       </c>
     </row>
@@ -10171,7 +10175,7 @@
       <c r="I305">
         <v>-0.93130000000000002</v>
       </c>
-      <c r="J305" s="3">
+      <c r="J305">
         <v>0.17372088725000001</v>
       </c>
     </row>
@@ -10203,7 +10207,7 @@
       <c r="I306">
         <v>-0.92649999999999999</v>
       </c>
-      <c r="J306" s="3">
+      <c r="J306">
         <v>0.173793405166666</v>
       </c>
     </row>
@@ -10235,7 +10239,7 @@
       <c r="I307">
         <v>-0.57779999999999998</v>
       </c>
-      <c r="J307" s="3">
+      <c r="J307">
         <v>0.17386592308333301</v>
       </c>
     </row>
@@ -10267,7 +10271,7 @@
       <c r="I308">
         <v>-0.41689999999999999</v>
       </c>
-      <c r="J308" s="3">
+      <c r="J308">
         <v>0.173938441</v>
       </c>
     </row>
@@ -10299,7 +10303,7 @@
       <c r="I309">
         <v>-0.2631</v>
       </c>
-      <c r="J309" s="3">
+      <c r="J309">
         <v>0.17401345258333301</v>
       </c>
     </row>
@@ -10331,7 +10335,7 @@
       <c r="I310">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="J310" s="3">
+      <c r="J310">
         <v>0.17408846416666601</v>
       </c>
     </row>
@@ -10363,7 +10367,7 @@
       <c r="I311">
         <v>-0.27800000000000002</v>
       </c>
-      <c r="J311" s="3">
+      <c r="J311">
         <v>0.17416347574999999</v>
       </c>
     </row>
@@ -10395,7 +10399,7 @@
       <c r="I312">
         <v>5.91E-2</v>
       </c>
-      <c r="J312" s="3">
+      <c r="J312">
         <v>0.174238487333333</v>
       </c>
     </row>
@@ -10427,7 +10431,7 @@
       <c r="I313">
         <v>0.82750000000000001</v>
       </c>
-      <c r="J313" s="3">
+      <c r="J313">
         <v>0.174313498916666</v>
       </c>
     </row>
@@ -10459,7 +10463,7 @@
       <c r="I314">
         <v>0.79339999999999999</v>
       </c>
-      <c r="J314" s="3">
+      <c r="J314">
         <v>0.17438851049999901</v>
       </c>
     </row>
@@ -10491,7 +10495,7 @@
       <c r="I315">
         <v>1.1472</v>
       </c>
-      <c r="J315" s="3">
+      <c r="J315">
         <v>0.17446352208333299</v>
       </c>
     </row>
@@ -10523,7 +10527,7 @@
       <c r="I316">
         <v>0.68510000000000004</v>
       </c>
-      <c r="J316" s="3">
+      <c r="J316">
         <v>0.174538533666666</v>
       </c>
     </row>
@@ -10555,7 +10559,7 @@
       <c r="I317">
         <v>-0.25430000000000003</v>
       </c>
-      <c r="J317" s="3">
+      <c r="J317">
         <v>0.17461354525</v>
       </c>
     </row>
@@ -10587,7 +10591,7 @@
       <c r="I318">
         <v>-0.97940000000000005</v>
       </c>
-      <c r="J318" s="3">
+      <c r="J318">
         <v>0.17468855683333301</v>
       </c>
     </row>
@@ -10619,7 +10623,7 @@
       <c r="I319">
         <v>-1.4139999999999999</v>
       </c>
-      <c r="J319" s="3">
+      <c r="J319">
         <v>0.17476356841666599</v>
       </c>
     </row>
@@ -10651,7 +10655,7 @@
       <c r="I320">
         <v>-1.1513</v>
       </c>
-      <c r="J320" s="3">
+      <c r="J320">
         <v>0.17483857999999999</v>
       </c>
     </row>
@@ -10683,7 +10687,7 @@
       <c r="I321">
         <v>-1.0565</v>
       </c>
-      <c r="J321" s="3">
+      <c r="J321">
         <v>0.17488827441666599</v>
       </c>
     </row>
@@ -10715,7 +10719,7 @@
       <c r="I322">
         <v>-0.8659</v>
       </c>
-      <c r="J322" s="3">
+      <c r="J322">
         <v>0.17493796883333301</v>
       </c>
     </row>
@@ -10747,7 +10751,7 @@
       <c r="I323">
         <v>-0.74890000000000001</v>
       </c>
-      <c r="J323" s="3">
+      <c r="J323">
         <v>0.17498766324999901</v>
       </c>
     </row>
@@ -10779,7 +10783,7 @@
       <c r="I324">
         <v>-0.55159999999999998</v>
       </c>
-      <c r="J324" s="3">
+      <c r="J324">
         <v>0.175037357666666</v>
       </c>
     </row>
@@ -10811,7 +10815,7 @@
       <c r="I325">
         <v>-0.82310000000000005</v>
       </c>
-      <c r="J325" s="3">
+      <c r="J325">
         <v>0.175087052083333</v>
       </c>
     </row>
@@ -10843,7 +10847,7 @@
       <c r="I326">
         <v>-0.78129999999999999</v>
       </c>
-      <c r="J326" s="3">
+      <c r="J326">
         <v>0.1751367465</v>
       </c>
     </row>
@@ -10875,7 +10879,7 @@
       <c r="I327">
         <v>-0.3997</v>
       </c>
-      <c r="J327" s="3">
+      <c r="J327">
         <v>0.17518644091666599</v>
       </c>
     </row>
@@ -10907,7 +10911,7 @@
       <c r="I328">
         <v>-0.27479999999999999</v>
       </c>
-      <c r="J328" s="3">
+      <c r="J328">
         <v>0.17523613533333299</v>
       </c>
     </row>
@@ -10939,7 +10943,7 @@
       <c r="I329">
         <v>-0.15279999999999999</v>
       </c>
-      <c r="J329" s="3">
+      <c r="J329">
         <v>0.17528582975000001</v>
       </c>
     </row>
@@ -10971,7 +10975,7 @@
       <c r="I330">
         <v>-5.1400000000000001E-2</v>
       </c>
-      <c r="J330" s="3">
+      <c r="J330">
         <v>0.17533552416666601</v>
       </c>
     </row>
@@ -11003,7 +11007,7 @@
       <c r="I331">
         <v>0.37669999999999998</v>
       </c>
-      <c r="J331" s="3">
+      <c r="J331">
         <v>0.175385218583333</v>
       </c>
     </row>
@@ -11035,7 +11039,7 @@
       <c r="I332">
         <v>0.64070000000000005</v>
       </c>
-      <c r="J332" s="3">
+      <c r="J332">
         <v>0.175434913</v>
       </c>
     </row>
@@ -11067,7 +11071,7 @@
       <c r="I333">
         <v>0.14080000000000001</v>
       </c>
-      <c r="J333" s="3">
+      <c r="J333">
         <v>0.17550848299999999</v>
       </c>
     </row>
@@ -11099,7 +11103,7 @@
       <c r="I334">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="J334" s="3">
+      <c r="J334">
         <v>0.17558205299999999</v>
       </c>
     </row>
@@ -11131,7 +11135,7 @@
       <c r="I335">
         <v>0.13150000000000001</v>
       </c>
-      <c r="J335" s="3">
+      <c r="J335">
         <v>0.17565562299999901</v>
       </c>
     </row>
@@ -11163,7 +11167,7 @@
       <c r="I336">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J336" s="3">
+      <c r="J336">
         <v>0.17572919300000001</v>
       </c>
     </row>
@@ -11195,7 +11199,7 @@
       <c r="I337">
         <v>0.14050000000000001</v>
       </c>
-      <c r="J337" s="3">
+      <c r="J337">
         <v>0.175802763</v>
       </c>
     </row>
@@ -11227,7 +11231,7 @@
       <c r="I338">
         <v>-0.14649999999999999</v>
       </c>
-      <c r="J338" s="3">
+      <c r="J338">
         <v>0.175876333</v>
       </c>
     </row>
@@ -11259,7 +11263,7 @@
       <c r="I339">
         <v>-0.15629999999999999</v>
       </c>
-      <c r="J339" s="3">
+      <c r="J339">
         <v>0.17594990299999999</v>
       </c>
     </row>
@@ -11291,7 +11295,7 @@
       <c r="I340">
         <v>-0.91080000000000005</v>
       </c>
-      <c r="J340" s="3">
+      <c r="J340">
         <v>0.17602347299999899</v>
       </c>
     </row>
@@ -11323,7 +11327,7 @@
       <c r="I341">
         <v>-0.48680000000000001</v>
       </c>
-      <c r="J341" s="3">
+      <c r="J341">
         <v>0.17609704300000001</v>
       </c>
     </row>
@@ -11355,7 +11359,7 @@
       <c r="I342">
         <v>0.1452</v>
       </c>
-      <c r="J342" s="3">
+      <c r="J342">
         <v>0.176170613</v>
       </c>
     </row>
@@ -11387,7 +11391,7 @@
       <c r="I343">
         <v>0.43130000000000002</v>
       </c>
-      <c r="J343" s="3">
+      <c r="J343">
         <v>0.176244183</v>
       </c>
     </row>
@@ -11419,7 +11423,7 @@
       <c r="I344">
         <v>0.2026</v>
       </c>
-      <c r="J344" s="3">
+      <c r="J344">
         <v>0.17631775299999999</v>
       </c>
     </row>
@@ -11451,7 +11455,7 @@
       <c r="I345">
         <v>0.11269999999999999</v>
       </c>
-      <c r="J345" s="3">
+      <c r="J345">
         <v>0.176442255083333</v>
       </c>
     </row>
@@ -11483,7 +11487,7 @@
       <c r="I346">
         <v>0.37990000000000002</v>
       </c>
-      <c r="J346" s="3">
+      <c r="J346">
         <v>0.17656675716666601</v>
       </c>
     </row>
@@ -11515,7 +11519,7 @@
       <c r="I347">
         <v>-0.1275</v>
       </c>
-      <c r="J347" s="3">
+      <c r="J347">
         <v>0.17669125925000001</v>
       </c>
     </row>
@@ -11547,7 +11551,7 @@
       <c r="I348">
         <v>-0.23569999999999999</v>
       </c>
-      <c r="J348" s="3">
+      <c r="J348">
         <v>0.17681576133333299</v>
       </c>
     </row>
@@ -11579,7 +11583,7 @@
       <c r="I349">
         <v>-0.39589999999999997</v>
       </c>
-      <c r="J349" s="3">
+      <c r="J349">
         <v>0.17694026341666599</v>
       </c>
     </row>
@@ -11611,7 +11615,7 @@
       <c r="I350">
         <v>-0.35189999999999999</v>
       </c>
-      <c r="J350" s="3">
+      <c r="J350">
         <v>0.1770647655</v>
       </c>
     </row>
@@ -11643,7 +11647,7 @@
       <c r="I351">
         <v>0.47499999999999998</v>
       </c>
-      <c r="J351" s="3">
+      <c r="J351">
         <v>0.177189267583333</v>
       </c>
     </row>
@@ -11675,7 +11679,7 @@
       <c r="I352">
         <v>0.84740000000000004</v>
       </c>
-      <c r="J352" s="3">
+      <c r="J352">
         <v>0.17731376966666601</v>
       </c>
     </row>
@@ -11707,7 +11711,7 @@
       <c r="I353">
         <v>0.76719999999999999</v>
       </c>
-      <c r="J353" s="3">
+      <c r="J353">
         <v>0.17743827174999999</v>
       </c>
     </row>
@@ -11739,7 +11743,7 @@
       <c r="I354">
         <v>0.99709999999999999</v>
       </c>
-      <c r="J354" s="3">
+      <c r="J354">
         <v>0.17756277383333299</v>
       </c>
     </row>
@@ -11771,7 +11775,7 @@
       <c r="I355">
         <v>1.1254</v>
       </c>
-      <c r="J355" s="3">
+      <c r="J355">
         <v>0.177687275916666</v>
       </c>
     </row>
@@ -11803,7 +11807,7 @@
       <c r="I356">
         <v>1.0013000000000001</v>
       </c>
-      <c r="J356" s="3">
+      <c r="J356">
         <v>0.177811778</v>
       </c>
     </row>
@@ -11835,7 +11839,7 @@
       <c r="I357">
         <v>0.79469999999999996</v>
       </c>
-      <c r="J357" s="3">
+      <c r="J357">
         <v>0.17790678400000001</v>
       </c>
     </row>
@@ -11867,7 +11871,7 @@
       <c r="I358">
         <v>0.61309999999999998</v>
       </c>
-      <c r="J358" s="3">
+      <c r="J358">
         <v>0.17800178999999999</v>
       </c>
     </row>
@@ -11899,7 +11903,7 @@
       <c r="I359">
         <v>0.36420000000000002</v>
       </c>
-      <c r="J359" s="3">
+      <c r="J359">
         <v>0.178096796</v>
       </c>
     </row>
@@ -11931,7 +11935,7 @@
       <c r="I360">
         <v>0.68340000000000001</v>
       </c>
-      <c r="J360" s="3">
+      <c r="J360">
         <v>0.17819180200000001</v>
       </c>
     </row>
@@ -11963,7 +11967,7 @@
       <c r="I361">
         <v>0.75070000000000003</v>
       </c>
-      <c r="J361" s="3">
+      <c r="J361">
         <v>0.17828680799999999</v>
       </c>
     </row>
@@ -11995,7 +11999,7 @@
       <c r="I362">
         <v>0.65280000000000005</v>
       </c>
-      <c r="J362" s="3">
+      <c r="J362">
         <v>0.178381814</v>
       </c>
     </row>
@@ -12027,7 +12031,7 @@
       <c r="I363">
         <v>0.16789999999999999</v>
       </c>
-      <c r="J363" s="3">
+      <c r="J363">
         <v>0.17847682000000001</v>
       </c>
     </row>
@@ -12059,7 +12063,7 @@
       <c r="I364">
         <v>0.26479999999999998</v>
       </c>
-      <c r="J364" s="3">
+      <c r="J364">
         <v>0.17857182599999999</v>
       </c>
     </row>
@@ -12091,7 +12095,7 @@
       <c r="I365">
         <v>0.33650000000000002</v>
       </c>
-      <c r="J365" s="3">
+      <c r="J365">
         <v>0.178666832</v>
       </c>
     </row>
@@ -12123,7 +12127,7 @@
       <c r="I366">
         <v>0.59909999999999997</v>
       </c>
-      <c r="J366" s="3">
+      <c r="J366">
         <v>0.17876183800000001</v>
       </c>
     </row>
@@ -12155,7 +12159,7 @@
       <c r="I367">
         <v>0.19819999999999999</v>
       </c>
-      <c r="J367" s="3">
+      <c r="J367">
         <v>0.17885684399999999</v>
       </c>
     </row>
@@ -12187,7 +12191,7 @@
       <c r="I368">
         <v>0.3044</v>
       </c>
-      <c r="J368" s="3">
+      <c r="J368">
         <v>0.17895185</v>
       </c>
     </row>
@@ -12219,7 +12223,7 @@
       <c r="I369">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="J369" s="3">
+      <c r="J369">
         <v>0.179091325083333</v>
       </c>
     </row>
@@ -12251,7 +12255,7 @@
       <c r="I370">
         <v>-0.1077</v>
       </c>
-      <c r="J370" s="3">
+      <c r="J370">
         <v>0.17923080016666601</v>
       </c>
     </row>
@@ -12283,7 +12287,7 @@
       <c r="I371">
         <v>-0.16320000000000001</v>
       </c>
-      <c r="J371" s="3">
+      <c r="J371">
         <v>0.17937027524999999</v>
       </c>
     </row>
@@ -12315,7 +12319,7 @@
       <c r="I372">
         <v>-0.54190000000000005</v>
       </c>
-      <c r="J372" s="3">
+      <c r="J372">
         <v>0.179509750333333</v>
       </c>
     </row>
@@ -12347,7 +12351,7 @@
       <c r="I373">
         <v>-7.9000000000000008E-3</v>
       </c>
-      <c r="J373" s="3">
+      <c r="J373">
         <v>0.179649225416666</v>
       </c>
     </row>
@@ -12379,7 +12383,7 @@
       <c r="I374">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="J374" s="3">
+      <c r="J374">
         <v>0.17978870050000001</v>
       </c>
     </row>
@@ -12411,7 +12415,7 @@
       <c r="I375">
         <v>-0.14910000000000001</v>
       </c>
-      <c r="J375" s="3">
+      <c r="J375">
         <v>0.17992817558333299</v>
       </c>
     </row>
@@ -12443,7 +12447,7 @@
       <c r="I376">
         <v>0.43830000000000002</v>
       </c>
-      <c r="J376" s="3">
+      <c r="J376">
         <v>0.180067650666666</v>
       </c>
     </row>
@@ -12475,7 +12479,7 @@
       <c r="I377">
         <v>0.15570000000000001</v>
       </c>
-      <c r="J377" s="3">
+      <c r="J377">
         <v>0.18020712575</v>
       </c>
     </row>
@@ -12507,7 +12511,7 @@
       <c r="I378">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="J378" s="3">
+      <c r="J378">
         <v>0.18034660083333301</v>
       </c>
     </row>
@@ -12539,7 +12543,7 @@
       <c r="I379">
         <v>0.45979999999999999</v>
       </c>
-      <c r="J379" s="3">
+      <c r="J379">
         <v>0.18048607591666599</v>
       </c>
     </row>
@@ -12571,7 +12575,7 @@
       <c r="I380">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J380" s="3">
+      <c r="J380">
         <v>0.180625551</v>
       </c>
     </row>
@@ -12603,7 +12607,7 @@
       <c r="I381">
         <v>0.49659999999999999</v>
       </c>
-      <c r="J381" s="3">
+      <c r="J381">
         <v>0.18074379699999901</v>
       </c>
     </row>
@@ -12635,7 +12639,7 @@
       <c r="I382">
         <v>0.56040000000000001</v>
       </c>
-      <c r="J382" s="3">
+      <c r="J382">
         <v>0.180862043</v>
       </c>
     </row>
@@ -12667,7 +12671,7 @@
       <c r="I383">
         <v>0.73829999999999996</v>
       </c>
-      <c r="J383" s="3">
+      <c r="J383">
         <v>0.18098028899999999</v>
       </c>
     </row>
@@ -12699,7 +12703,7 @@
       <c r="I384">
         <v>0.12670000000000001</v>
       </c>
-      <c r="J384" s="3">
+      <c r="J384">
         <v>0.181098535</v>
       </c>
     </row>
@@ -12731,7 +12735,7 @@
       <c r="I385">
         <v>-3.9800000000000002E-2</v>
       </c>
-      <c r="J385" s="3">
+      <c r="J385">
         <v>0.18121678099999999</v>
       </c>
     </row>
@@ -12763,7 +12767,7 @@
       <c r="I386">
         <v>0.2145</v>
       </c>
-      <c r="J386" s="3">
+      <c r="J386">
         <v>0.18133502699999901</v>
       </c>
     </row>
@@ -12795,7 +12799,7 @@
       <c r="I387">
         <v>0.2485</v>
       </c>
-      <c r="J387" s="3">
+      <c r="J387">
         <v>0.181453273</v>
       </c>
     </row>
@@ -12827,7 +12831,7 @@
       <c r="I388">
         <v>0.70189999999999997</v>
       </c>
-      <c r="J388" s="3">
+      <c r="J388">
         <v>0.18157151899999999</v>
       </c>
     </row>
@@ -12859,7 +12863,7 @@
       <c r="I389">
         <v>0.5464</v>
       </c>
-      <c r="J389" s="3">
+      <c r="J389">
         <v>0.181689765</v>
       </c>
     </row>
@@ -12891,7 +12895,7 @@
       <c r="I390">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="J390" s="3">
+      <c r="J390">
         <v>0.18180801099999999</v>
       </c>
     </row>
@@ -12923,7 +12927,7 @@
       <c r="I391">
         <v>-0.21579999999999999</v>
       </c>
-      <c r="J391" s="3">
+      <c r="J391">
         <v>0.18192625700000001</v>
       </c>
     </row>
@@ -12955,7 +12959,7 @@
       <c r="I392">
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="J392" s="3">
+      <c r="J392">
         <v>0.182044503</v>
       </c>
     </row>
@@ -12987,7 +12991,7 @@
       <c r="I393">
         <v>0.27429999999999999</v>
       </c>
-      <c r="J393" s="3">
+      <c r="J393">
         <v>0.18215006808333301</v>
       </c>
     </row>
@@ -13019,7 +13023,7 @@
       <c r="I394">
         <v>0.59950000000000003</v>
       </c>
-      <c r="J394" s="3">
+      <c r="J394">
         <v>0.18225563316666599</v>
       </c>
     </row>
@@ -13051,7 +13055,7 @@
       <c r="I395">
         <v>0.76200000000000001</v>
       </c>
-      <c r="J395" s="3">
+      <c r="J395">
         <v>0.18236119825</v>
       </c>
     </row>
@@ -13083,7 +13087,7 @@
       <c r="I396">
         <v>0.53400000000000003</v>
       </c>
-      <c r="J396" s="3">
+      <c r="J396">
         <v>0.182466763333333</v>
       </c>
     </row>
@@ -13115,7 +13119,7 @@
       <c r="I397">
         <v>-0.2707</v>
       </c>
-      <c r="J397" s="3">
+      <c r="J397">
         <v>0.18257232841666601</v>
       </c>
     </row>
@@ -13147,7 +13151,7 @@
       <c r="I398">
         <v>-0.74909999999999999</v>
       </c>
-      <c r="J398" s="3">
+      <c r="J398">
         <v>0.18267789349999999</v>
       </c>
     </row>
@@ -13179,7 +13183,7 @@
       <c r="I399">
         <v>-1.1497999999999999</v>
       </c>
-      <c r="J399" s="3">
+      <c r="J399">
         <v>0.182783458583333</v>
       </c>
     </row>
@@ -13211,7 +13215,7 @@
       <c r="I400">
         <v>-0.67169999999999996</v>
       </c>
-      <c r="J400" s="3">
+      <c r="J400">
         <v>0.18288902366666601</v>
       </c>
     </row>
@@ -13243,7 +13247,7 @@
       <c r="I401">
         <v>-0.92420000000000002</v>
       </c>
-      <c r="J401" s="3">
+      <c r="J401">
         <v>0.18299458874999999</v>
       </c>
     </row>
@@ -13275,7 +13279,7 @@
       <c r="I402">
         <v>-0.65469999999999995</v>
       </c>
-      <c r="J402" s="3">
+      <c r="J402">
         <v>0.183100153833333</v>
       </c>
     </row>
@@ -13307,7 +13311,7 @@
       <c r="I403">
         <v>-0.68140000000000001</v>
       </c>
-      <c r="J403" s="3">
+      <c r="J403">
         <v>0.18320571891666601</v>
       </c>
     </row>
@@ -13339,7 +13343,7 @@
       <c r="I404">
         <v>-0.93410000000000004</v>
       </c>
-      <c r="J404" s="3">
+      <c r="J404">
         <v>0.18331128399999999</v>
       </c>
     </row>
@@ -13371,7 +13375,7 @@
       <c r="I405">
         <v>-0.59730000000000005</v>
       </c>
-      <c r="J405" s="3">
+      <c r="J405">
         <v>0.18340317849999899</v>
       </c>
     </row>
@@ -13403,7 +13407,7 @@
       <c r="I406">
         <v>-0.56499999999999995</v>
       </c>
-      <c r="J406" s="3">
+      <c r="J406">
         <v>0.18349507300000001</v>
       </c>
     </row>
@@ -13435,7 +13439,7 @@
       <c r="I407">
         <v>-0.64529999999999998</v>
       </c>
-      <c r="J407" s="3">
+      <c r="J407">
         <v>0.1835869675</v>
       </c>
     </row>
@@ -13467,7 +13471,7 @@
       <c r="I408">
         <v>-0.35410000000000003</v>
       </c>
-      <c r="J408" s="3">
+      <c r="J408">
         <v>0.183678862</v>
       </c>
     </row>
@@ -13499,7 +13503,7 @@
       <c r="I409">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="J409" s="3">
+      <c r="J409">
         <v>0.18377075649999999</v>
       </c>
     </row>
@@ -13531,7 +13535,7 @@
       <c r="I410">
         <v>0.58389999999999997</v>
       </c>
-      <c r="J410" s="3">
+      <c r="J410">
         <v>0.18386265099999999</v>
       </c>
     </row>
@@ -13563,7 +13567,7 @@
       <c r="I411">
         <v>0.39269999999999999</v>
       </c>
-      <c r="J411" s="3">
+      <c r="J411">
         <v>0.18395454550000001</v>
       </c>
     </row>
@@ -13595,7 +13599,7 @@
       <c r="I412">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="J412" s="3">
+      <c r="J412">
         <v>0.18404644000000001</v>
       </c>
     </row>
@@ -13627,7 +13631,7 @@
       <c r="I413">
         <v>0.1411</v>
       </c>
-      <c r="J413" s="3">
+      <c r="J413">
         <v>0.1841383345</v>
       </c>
     </row>
@@ -13659,7 +13663,7 @@
       <c r="I414">
         <v>0.27029999999999998</v>
       </c>
-      <c r="J414" s="3">
+      <c r="J414">
         <v>0.184230229</v>
       </c>
     </row>
@@ -13691,7 +13695,7 @@
       <c r="I415">
         <v>-0.10489999999999999</v>
       </c>
-      <c r="J415" s="3">
+      <c r="J415">
         <v>0.18432212349999999</v>
       </c>
     </row>
@@ -13723,7 +13727,7 @@
       <c r="I416">
         <v>-0.2868</v>
       </c>
-      <c r="J416" s="3">
+      <c r="J416">
         <v>0.18441401800000001</v>
       </c>
     </row>
@@ -13755,7 +13759,7 @@
       <c r="I417">
         <v>-1E-3</v>
       </c>
-      <c r="J417" s="3">
+      <c r="J417">
         <v>0.18450472949999999</v>
       </c>
     </row>
@@ -13787,7 +13791,7 @@
       <c r="I418">
         <v>-0.33739999999999998</v>
       </c>
-      <c r="J418" s="3">
+      <c r="J418">
         <v>0.184595441</v>
       </c>
     </row>
@@ -13819,7 +13823,7 @@
       <c r="I419">
         <v>-0.21890000000000001</v>
       </c>
-      <c r="J419" s="3">
+      <c r="J419">
         <v>0.18468615250000001</v>
       </c>
     </row>
@@ -13851,7 +13855,7 @@
       <c r="I420">
         <v>-0.1988</v>
       </c>
-      <c r="J420" s="3">
+      <c r="J420">
         <v>0.18477686400000001</v>
       </c>
     </row>
@@ -13883,7 +13887,7 @@
       <c r="I421">
         <v>-0.59050000000000002</v>
       </c>
-      <c r="J421" s="3">
+      <c r="J421">
         <v>0.18486757549999999</v>
       </c>
     </row>
@@ -13915,7 +13919,7 @@
       <c r="I422">
         <v>-0.871</v>
       </c>
-      <c r="J422" s="3">
+      <c r="J422">
         <v>0.184958287</v>
       </c>
     </row>
@@ -13947,7 +13951,7 @@
       <c r="I423">
         <v>-0.78249999999999997</v>
       </c>
-      <c r="J423" s="3">
+      <c r="J423">
         <v>0.18504899850000001</v>
       </c>
     </row>
@@ -13979,7 +13983,7 @@
       <c r="I424">
         <v>-0.76339999999999997</v>
       </c>
-      <c r="J424" s="3">
+      <c r="J424">
         <v>0.18513971000000001</v>
       </c>
     </row>
@@ -14011,7 +14015,7 @@
       <c r="I425">
         <v>-0.50029999999999997</v>
       </c>
-      <c r="J425" s="3">
+      <c r="J425">
         <v>0.18523042149999999</v>
       </c>
     </row>
@@ -14043,7 +14047,7 @@
       <c r="I426">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="J426" s="3">
+      <c r="J426">
         <v>0.185321133</v>
       </c>
     </row>
@@ -14075,7 +14079,7 @@
       <c r="I427">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="J427" s="3">
+      <c r="J427">
         <v>0.18541184450000001</v>
       </c>
     </row>
@@ -14107,7 +14111,7 @@
       <c r="I428">
         <v>-0.3337</v>
       </c>
-      <c r="J428" s="3">
+      <c r="J428">
         <v>0.18550255600000001</v>
       </c>
     </row>
@@ -14139,7 +14143,7 @@
       <c r="I429">
         <v>-6.2399999999999997E-2</v>
       </c>
-      <c r="J429" s="3">
+      <c r="J429">
         <v>0.185585813416666</v>
       </c>
     </row>
@@ -14171,7 +14175,7 @@
       <c r="I430">
         <v>-4.8800000000000003E-2</v>
       </c>
-      <c r="J430" s="3">
+      <c r="J430">
         <v>0.18566907083333301</v>
       </c>
     </row>
@@ -14203,7 +14207,7 @@
       <c r="I431">
         <v>-0.36509999999999998</v>
       </c>
-      <c r="J431" s="3">
+      <c r="J431">
         <v>0.18575232824999999</v>
       </c>
     </row>
@@ -14235,7 +14239,7 @@
       <c r="I432">
         <v>-1.1081000000000001</v>
       </c>
-      <c r="J432" s="3">
+      <c r="J432">
         <v>0.185835585666666</v>
       </c>
     </row>
@@ -14267,7 +14271,7 @@
       <c r="I433">
         <v>-1.1336999999999999</v>
       </c>
-      <c r="J433" s="3">
+      <c r="J433">
         <v>0.18591884308333301</v>
       </c>
     </row>
@@ -14299,7 +14303,7 @@
       <c r="I434">
         <v>-1.2643</v>
       </c>
-      <c r="J434" s="3">
+      <c r="J434">
         <v>0.18600210049999999</v>
       </c>
     </row>
@@ -14331,7 +14335,7 @@
       <c r="I435">
         <v>-0.53149999999999997</v>
       </c>
-      <c r="J435" s="3">
+      <c r="J435">
         <v>0.186085357916666</v>
       </c>
     </row>
@@ -14363,7 +14367,7 @@
       <c r="I436">
         <v>-0.36370000000000002</v>
       </c>
-      <c r="J436" s="3">
+      <c r="J436">
         <v>0.18616861533333301</v>
       </c>
     </row>
@@ -14395,7 +14399,7 @@
       <c r="I437">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="J437" s="3">
+      <c r="J437">
         <v>0.18625187274999999</v>
       </c>
     </row>
@@ -14427,7 +14431,7 @@
       <c r="I438">
         <v>0.1492</v>
       </c>
-      <c r="J438" s="3">
+      <c r="J438">
         <v>0.186335130166666</v>
       </c>
     </row>
@@ -14459,7 +14463,7 @@
       <c r="I439">
         <v>-0.26219999999999999</v>
       </c>
-      <c r="J439" s="3">
+      <c r="J439">
         <v>0.18641838758333301</v>
       </c>
     </row>
@@ -14491,7 +14495,7 @@
       <c r="I440">
         <v>-0.63460000000000005</v>
       </c>
-      <c r="J440" s="3">
+      <c r="J440">
         <v>0.18650164499999999</v>
       </c>
     </row>
@@ -14523,7 +14527,7 @@
       <c r="I441">
         <v>-0.77280000000000004</v>
       </c>
-      <c r="J441" s="3">
+      <c r="J441">
         <v>0.18657602500000001</v>
       </c>
     </row>
@@ -14555,7 +14559,7 @@
       <c r="I442">
         <v>-0.55600000000000005</v>
       </c>
-      <c r="J442" s="3">
+      <c r="J442">
         <v>0.18665040499999999</v>
       </c>
     </row>
@@ -14587,7 +14591,7 @@
       <c r="I443">
         <v>-0.1792</v>
       </c>
-      <c r="J443" s="3">
+      <c r="J443">
         <v>0.186724785</v>
       </c>
     </row>
@@ -14619,7 +14623,7 @@
       <c r="I444">
         <v>0.3826</v>
       </c>
-      <c r="J444" s="3">
+      <c r="J444">
         <v>0.18679916499999999</v>
       </c>
     </row>
@@ -14651,7 +14655,7 @@
       <c r="I445">
         <v>0.61260000000000003</v>
       </c>
-      <c r="J445" s="3">
+      <c r="J445">
         <v>0.186873545</v>
       </c>
     </row>
@@ -14683,7 +14687,7 @@
       <c r="I446">
         <v>0.90249999999999997</v>
       </c>
-      <c r="J446" s="3">
+      <c r="J446">
         <v>0.18694792499999999</v>
       </c>
     </row>
@@ -14715,7 +14719,7 @@
       <c r="I447">
         <v>0.70209999999999995</v>
       </c>
-      <c r="J447" s="3">
+      <c r="J447">
         <v>0.187022305</v>
       </c>
     </row>
@@ -14747,7 +14751,7 @@
       <c r="I448">
         <v>0.16919999999999999</v>
       </c>
-      <c r="J448" s="3">
+      <c r="J448">
         <v>0.18709668500000001</v>
       </c>
     </row>
@@ -14779,7 +14783,7 @@
       <c r="I449">
         <v>-0.26989999999999997</v>
       </c>
-      <c r="J449" s="3">
+      <c r="J449">
         <v>0.187171065</v>
       </c>
     </row>
@@ -14811,7 +14815,7 @@
       <c r="I450">
         <v>-0.41739999999999999</v>
       </c>
-      <c r="J450" s="3">
+      <c r="J450">
         <v>0.18724544500000001</v>
       </c>
     </row>
@@ -14843,7 +14847,7 @@
       <c r="I451">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J451" s="3">
+      <c r="J451">
         <v>0.187319825</v>
       </c>
     </row>
@@ -14875,7 +14879,7 @@
       <c r="I452">
         <v>0.29849999999999999</v>
       </c>
-      <c r="J452" s="3">
+      <c r="J452">
         <v>0.18739420500000001</v>
       </c>
     </row>
@@ -14907,7 +14911,7 @@
       <c r="I453">
         <v>0.38150000000000001</v>
       </c>
-      <c r="J453" s="3">
+      <c r="J453">
         <v>0.18748281391666599</v>
       </c>
     </row>
@@ -14939,7 +14943,7 @@
       <c r="I454">
         <v>-1.7600000000000001E-2</v>
       </c>
-      <c r="J454" s="3">
+      <c r="J454">
         <v>0.187571422833333</v>
       </c>
     </row>
@@ -14971,7 +14975,7 @@
       <c r="I455">
         <v>0.1552</v>
       </c>
-      <c r="J455" s="3">
+      <c r="J455">
         <v>0.18766003175000001</v>
       </c>
     </row>
@@ -15003,7 +15007,7 @@
       <c r="I456">
         <v>0.42570000000000002</v>
       </c>
-      <c r="J456" s="3">
+      <c r="J456">
         <v>0.18774864066666599</v>
       </c>
     </row>
@@ -15035,7 +15039,7 @@
       <c r="I457">
         <v>0.67130000000000001</v>
       </c>
-      <c r="J457" s="3">
+      <c r="J457">
         <v>0.187837249583333</v>
       </c>
     </row>
@@ -15067,7 +15071,7 @@
       <c r="I458">
         <v>-0.51339999999999997</v>
       </c>
-      <c r="J458" s="3">
+      <c r="J458">
         <v>0.18792585849999999</v>
       </c>
     </row>
@@ -15099,7 +15103,7 @@
       <c r="I459">
         <v>-0.78920000000000001</v>
       </c>
-      <c r="J459" s="3">
+      <c r="J459">
         <v>0.188014467416666</v>
       </c>
     </row>
@@ -15131,7 +15135,7 @@
       <c r="I460">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="J460" s="3">
+      <c r="J460">
         <v>0.18810307633333301</v>
       </c>
     </row>
@@ -15163,7 +15167,7 @@
       <c r="I461">
         <v>0.46010000000000001</v>
       </c>
-      <c r="J461" s="3">
+      <c r="J461">
         <v>0.18819168524999999</v>
       </c>
     </row>
@@ -15195,7 +15199,7 @@
       <c r="I462">
         <v>0.78210000000000002</v>
       </c>
-      <c r="J462" s="3">
+      <c r="J462">
         <v>0.188280294166666</v>
       </c>
     </row>
@@ -15227,7 +15231,7 @@
       <c r="I463">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J463" s="3">
+      <c r="J463">
         <v>0.18836890308333301</v>
       </c>
     </row>
@@ -15259,7 +15263,7 @@
       <c r="I464">
         <v>0.4219</v>
       </c>
-      <c r="J464" s="3">
+      <c r="J464">
         <v>0.18845751199999999</v>
       </c>
     </row>
@@ -15291,7 +15295,7 @@
       <c r="I465">
         <v>0.64410000000000001</v>
       </c>
-      <c r="J465" s="3">
+      <c r="J465">
         <v>0.18850930991666601</v>
       </c>
     </row>
@@ -15323,7 +15327,7 @@
       <c r="I466">
         <v>0.3054</v>
       </c>
-      <c r="J466" s="3">
+      <c r="J466">
         <v>0.18856110783333299</v>
       </c>
     </row>
@@ -15355,7 +15359,7 @@
       <c r="I467">
         <v>0.15890000000000001</v>
       </c>
-      <c r="J467" s="3">
+      <c r="J467">
         <v>0.18861290575</v>
       </c>
     </row>
@@ -15387,7 +15391,7 @@
       <c r="I468">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="J468" s="3">
+      <c r="J468">
         <v>0.18866470366666599</v>
       </c>
     </row>
@@ -15419,7 +15423,7 @@
       <c r="I469">
         <v>0.2011</v>
       </c>
-      <c r="J469" s="3">
+      <c r="J469">
         <v>0.188716501583333</v>
       </c>
     </row>
@@ -15451,7 +15455,7 @@
       <c r="I470">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="J470" s="3">
+      <c r="J470">
         <v>0.18876829949999999</v>
       </c>
     </row>
@@ -15483,7 +15487,7 @@
       <c r="I471">
         <v>-0.45419999999999999</v>
       </c>
-      <c r="J471" s="3">
+      <c r="J471">
         <v>0.188820097416666</v>
       </c>
     </row>
@@ -15515,7 +15519,7 @@
       <c r="I472">
         <v>-0.9113</v>
       </c>
-      <c r="J472" s="3">
+      <c r="J472">
         <v>0.18887189533333301</v>
       </c>
     </row>
@@ -15547,7 +15551,7 @@
       <c r="I473">
         <v>-0.66449999999999998</v>
       </c>
-      <c r="J473" s="3">
+      <c r="J473">
         <v>0.18892369325</v>
       </c>
     </row>
@@ -15579,7 +15583,7 @@
       <c r="I474">
         <v>-0.1052</v>
       </c>
-      <c r="J474" s="3">
+      <c r="J474">
         <v>0.18897549116666601</v>
       </c>
     </row>
@@ -15611,7 +15615,7 @@
       <c r="I475">
         <v>0.28770000000000001</v>
       </c>
-      <c r="J475" s="3">
+      <c r="J475">
         <v>0.18902728908333299</v>
       </c>
     </row>
@@ -15643,7 +15647,7 @@
       <c r="I476">
         <v>0.33310000000000001</v>
       </c>
-      <c r="J476" s="3">
+      <c r="J476">
         <v>0.18907908700000001</v>
       </c>
     </row>
@@ -15675,7 +15679,7 @@
       <c r="I477">
         <v>0.28710000000000002</v>
       </c>
-      <c r="J477" s="3">
+      <c r="J477">
         <v>0.18912933274999999</v>
       </c>
     </row>
@@ -15707,7 +15711,7 @@
       <c r="I478">
         <v>0.17449999999999999</v>
       </c>
-      <c r="J478" s="3">
+      <c r="J478">
         <v>0.1891795785</v>
       </c>
     </row>
@@ -15739,7 +15743,7 @@
       <c r="I479">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J479" s="3">
+      <c r="J479">
         <v>0.18922982425000001</v>
       </c>
     </row>
@@ -15771,7 +15775,7 @@
       <c r="I480">
         <v>0.42509999999999998</v>
       </c>
-      <c r="J480" s="3">
+      <c r="J480">
         <v>0.18928006999999999</v>
       </c>
     </row>
@@ -15803,7 +15807,7 @@
       <c r="I481">
         <v>0.3256</v>
       </c>
-      <c r="J481" s="3">
+      <c r="J481">
         <v>0.18933031575000001</v>
       </c>
     </row>
@@ -15835,7 +15839,7 @@
       <c r="I482">
         <v>-0.29310000000000003</v>
       </c>
-      <c r="J482" s="3">
+      <c r="J482">
         <v>0.18938056149999999</v>
       </c>
     </row>
@@ -15867,7 +15871,7 @@
       <c r="I483">
         <v>-0.17879999999999999</v>
       </c>
-      <c r="J483" s="3">
+      <c r="J483">
         <v>0.18943080725</v>
       </c>
     </row>
@@ -15899,7 +15903,7 @@
       <c r="I484">
         <v>0.28770000000000001</v>
       </c>
-      <c r="J484" s="3">
+      <c r="J484">
         <v>0.18948105300000001</v>
       </c>
     </row>
@@ -15931,7 +15935,7 @@
       <c r="I485">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J485" s="3">
+      <c r="J485">
         <v>0.18953129874999999</v>
       </c>
     </row>
@@ -15963,7 +15967,7 @@
       <c r="I486">
         <v>0.1618</v>
       </c>
-      <c r="J486" s="3">
+      <c r="J486">
         <v>0.1895815445</v>
       </c>
     </row>
@@ -15995,7 +15999,7 @@
       <c r="I487">
         <v>0.11509999999999999</v>
       </c>
-      <c r="J487" s="3">
+      <c r="J487">
         <v>0.18963179024999999</v>
       </c>
     </row>
@@ -16027,7 +16031,7 @@
       <c r="I488">
         <v>-0.24970000000000001</v>
       </c>
-      <c r="J488" s="3">
+      <c r="J488">
         <v>0.189682036</v>
       </c>
     </row>
@@ -16059,7 +16063,7 @@
       <c r="I489">
         <v>0.10920000000000001</v>
       </c>
-      <c r="J489" s="3">
+      <c r="J489">
         <v>0.189721933916666</v>
       </c>
     </row>
@@ -16091,7 +16095,7 @@
       <c r="I490">
         <v>0.22420000000000001</v>
       </c>
-      <c r="J490" s="3">
+      <c r="J490">
         <v>0.18976183183333301</v>
       </c>
     </row>
@@ -16123,7 +16127,7 @@
       <c r="I491">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J491" s="3">
+      <c r="J491">
         <v>0.18980172975000001</v>
       </c>
     </row>
@@ -16155,7 +16159,7 @@
       <c r="I492">
         <v>1.2315</v>
       </c>
-      <c r="J492" s="3">
+      <c r="J492">
         <v>0.18984162766666601</v>
       </c>
     </row>
@@ -16187,7 +16191,7 @@
       <c r="I493">
         <v>1.5502</v>
       </c>
-      <c r="J493" s="3">
+      <c r="J493">
         <v>0.18988152558333299</v>
       </c>
     </row>
@@ -16219,7 +16223,7 @@
       <c r="I494">
         <v>1.3574999999999999</v>
       </c>
-      <c r="J494" s="3">
+      <c r="J494">
         <v>0.18992142349999999</v>
       </c>
     </row>
@@ -16251,7 +16255,7 @@
       <c r="I495">
         <v>1.2929999999999999</v>
       </c>
-      <c r="J495" s="3">
+      <c r="J495">
         <v>0.189961321416666</v>
       </c>
     </row>
@@ -16283,7 +16287,7 @@
       <c r="I496">
         <v>1.2808999999999999</v>
       </c>
-      <c r="J496" s="3">
+      <c r="J496">
         <v>0.190001219333333</v>
       </c>
     </row>
@@ -16315,7 +16319,7 @@
       <c r="I497">
         <v>0.99539999999999995</v>
       </c>
-      <c r="J497" s="3">
+      <c r="J497">
         <v>0.19004111725</v>
       </c>
     </row>
@@ -16347,7 +16351,7 @@
       <c r="I498">
         <v>0.97070000000000001</v>
       </c>
-      <c r="J498" s="3">
+      <c r="J498">
         <v>0.19008101516666601</v>
       </c>
     </row>
@@ -16379,7 +16383,7 @@
       <c r="I499">
         <v>0.30499999999999999</v>
       </c>
-      <c r="J499" s="3">
+      <c r="J499">
         <v>0.19012091308333301</v>
       </c>
     </row>
@@ -16411,7 +16415,7 @@
       <c r="I500">
         <v>0.53580000000000005</v>
       </c>
-      <c r="J500" s="3">
+      <c r="J500">
         <v>0.19016081100000001</v>
       </c>
     </row>
@@ -16443,7 +16447,7 @@
       <c r="I501">
         <v>0.30759999999999998</v>
       </c>
-      <c r="J501" s="3">
+      <c r="J501">
         <v>0.19017014633333301</v>
       </c>
     </row>
@@ -16475,7 +16479,7 @@
       <c r="I502">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="J502" s="3">
+      <c r="J502">
         <v>0.19017948166666601</v>
       </c>
     </row>
@@ -16507,7 +16511,7 @@
       <c r="I503">
         <v>0.1933</v>
       </c>
-      <c r="J503" s="3">
+      <c r="J503">
         <v>0.19018881700000001</v>
       </c>
     </row>
@@ -16539,7 +16543,7 @@
       <c r="I504">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J504" s="3">
+      <c r="J504">
         <v>0.19019815233333301</v>
       </c>
     </row>
@@ -16571,7 +16575,7 @@
       <c r="I505">
         <v>-0.85570000000000002</v>
       </c>
-      <c r="J505" s="3">
+      <c r="J505">
         <v>0.19020748766666601</v>
       </c>
     </row>
@@ -16603,7 +16607,7 @@
       <c r="I506">
         <v>-1.0184</v>
       </c>
-      <c r="J506" s="3">
+      <c r="J506">
         <v>0.19021682300000001</v>
       </c>
     </row>
@@ -16635,7 +16639,7 @@
       <c r="I507">
         <v>-0.84770000000000001</v>
       </c>
-      <c r="J507" s="3">
+      <c r="J507">
         <v>0.19022615833333301</v>
       </c>
     </row>
@@ -16667,7 +16671,7 @@
       <c r="I508">
         <v>-0.77549999999999997</v>
       </c>
-      <c r="J508" s="3">
+      <c r="J508">
         <v>0.19023549366666601</v>
       </c>
     </row>
@@ -16699,7 +16703,7 @@
       <c r="I509">
         <v>-0.373</v>
       </c>
-      <c r="J509" s="3">
+      <c r="J509">
         <v>0.190244829</v>
       </c>
     </row>
@@ -16731,7 +16735,7 @@
       <c r="I510">
         <v>0.1008</v>
       </c>
-      <c r="J510" s="3">
+      <c r="J510">
         <v>0.190254164333333</v>
       </c>
     </row>
@@ -16763,7 +16767,7 @@
       <c r="I511">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J511" s="3">
+      <c r="J511">
         <v>0.190263499666666</v>
       </c>
     </row>
@@ -16795,7 +16799,7 @@
       <c r="I512">
         <v>0.98819999999999997</v>
       </c>
-      <c r="J512" s="3">
+      <c r="J512">
         <v>0.190272835</v>
       </c>
     </row>
@@ -16827,7 +16831,7 @@
       <c r="I513">
         <v>1.1380999999999999</v>
       </c>
-      <c r="J513" s="3">
+      <c r="J513">
         <v>0.19035583008333301</v>
       </c>
     </row>
@@ -16859,7 +16863,7 @@
       <c r="I514">
         <v>0.79449999999999998</v>
       </c>
-      <c r="J514" s="3">
+      <c r="J514">
         <v>0.19043882516666599</v>
       </c>
     </row>
@@ -16891,7 +16895,7 @@
       <c r="I515">
         <v>0.6794</v>
       </c>
-      <c r="J515" s="3">
+      <c r="J515">
         <v>0.19052182025</v>
       </c>
     </row>
@@ -16923,7 +16927,7 @@
       <c r="I516">
         <v>0.47239999999999999</v>
       </c>
-      <c r="J516" s="3">
+      <c r="J516">
         <v>0.19060481533333301</v>
       </c>
     </row>
@@ -16955,7 +16959,7 @@
       <c r="I517">
         <v>-0.1454</v>
       </c>
-      <c r="J517" s="3">
+      <c r="J517">
         <v>0.19068781041666599</v>
       </c>
     </row>
@@ -16987,7 +16991,7 @@
       <c r="I518">
         <v>-7.2900000000000006E-2</v>
       </c>
-      <c r="J518" s="3">
+      <c r="J518">
         <v>0.1907708055</v>
       </c>
     </row>
@@ -17019,7 +17023,7 @@
       <c r="I519">
         <v>0.21870000000000001</v>
       </c>
-      <c r="J519" s="3">
+      <c r="J519">
         <v>0.19085380058333301</v>
       </c>
     </row>
@@ -17051,7 +17055,7 @@
       <c r="I520">
         <v>0.13300000000000001</v>
       </c>
-      <c r="J520" s="3">
+      <c r="J520">
         <v>0.19093679566666599</v>
       </c>
     </row>
@@ -17083,7 +17087,7 @@
       <c r="I521">
         <v>0.1429</v>
       </c>
-      <c r="J521" s="3">
+      <c r="J521">
         <v>0.19101979075</v>
       </c>
     </row>
@@ -17115,7 +17119,7 @@
       <c r="I522">
         <v>-2.2700000000000001E-2</v>
       </c>
-      <c r="J522" s="3">
+      <c r="J522">
         <v>0.19110278583333301</v>
       </c>
     </row>
@@ -17147,7 +17151,7 @@
       <c r="I523">
         <v>0.42859999999999998</v>
       </c>
-      <c r="J523" s="3">
+      <c r="J523">
         <v>0.19118578091666599</v>
       </c>
     </row>
@@ -17179,7 +17183,7 @@
       <c r="I524">
         <v>0.24660000000000001</v>
       </c>
-      <c r="J524" s="3">
+      <c r="J524">
         <v>0.191268776</v>
       </c>
     </row>
@@ -17211,7 +17215,7 @@
       <c r="I525">
         <v>0.20219999999999999</v>
       </c>
-      <c r="J525" s="3">
+      <c r="J525">
         <v>0.19136177599999998</v>
       </c>
     </row>
@@ -17243,7 +17247,7 @@
       <c r="I526">
         <v>0.4662</v>
       </c>
-      <c r="J526" s="3">
+      <c r="J526">
         <v>0.19145477599999999</v>
       </c>
     </row>
@@ -17275,7 +17279,7 @@
       <c r="I527">
         <v>0.41980000000000001</v>
       </c>
-      <c r="J527" s="3">
+      <c r="J527">
         <v>0.191544776</v>
       </c>
     </row>
@@ -17307,7 +17311,7 @@
       <c r="I528">
         <v>0.27650000000000002</v>
       </c>
-      <c r="J528" s="3">
+      <c r="J528">
         <v>0.19163777599999998</v>
       </c>
     </row>
@@ -17339,8 +17343,1535 @@
       <c r="I529">
         <v>0.13320000000000001</v>
       </c>
-      <c r="J529" s="3">
+      <c r="J529">
         <v>0.19172777599999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87AC6A4-FE34-41E7-921D-4B857C777E4B}">
+  <dimension ref="A1:B189"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>29221</v>
+      </c>
+      <c r="B2">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>29252</v>
+      </c>
+      <c r="B3">
+        <v>7414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>29281</v>
+      </c>
+      <c r="B4">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>29312</v>
+      </c>
+      <c r="B5">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>29342</v>
+      </c>
+      <c r="B6">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>29373</v>
+      </c>
+      <c r="B7">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>29403</v>
+      </c>
+      <c r="B8">
+        <v>9486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>29434</v>
+      </c>
+      <c r="B9">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>29465</v>
+      </c>
+      <c r="B10">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>29495</v>
+      </c>
+      <c r="B11">
+        <v>8206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>29526</v>
+      </c>
+      <c r="B12">
+        <v>7927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>29556</v>
+      </c>
+      <c r="B13">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>29587</v>
+      </c>
+      <c r="B14">
+        <v>7834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>29618</v>
+      </c>
+      <c r="B15">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>29646</v>
+      </c>
+      <c r="B16">
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>29677</v>
+      </c>
+      <c r="B17">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>29707</v>
+      </c>
+      <c r="B18">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>29738</v>
+      </c>
+      <c r="B19">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>29768</v>
+      </c>
+      <c r="B20">
+        <v>10078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>29799</v>
+      </c>
+      <c r="B21">
+        <v>9796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>29830</v>
+      </c>
+      <c r="B22">
+        <v>8471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>29860</v>
+      </c>
+      <c r="B23">
+        <v>8572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>29891</v>
+      </c>
+      <c r="B24">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>29921</v>
+      </c>
+      <c r="B25">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>29952</v>
+      </c>
+      <c r="B26">
+        <v>8166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>29983</v>
+      </c>
+      <c r="B27">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>30011</v>
+      </c>
+      <c r="B28">
+        <v>8606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>30042</v>
+      </c>
+      <c r="B29">
+        <v>8071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>30072</v>
+      </c>
+      <c r="B30">
+        <v>9178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30103</v>
+      </c>
+      <c r="B31">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30133</v>
+      </c>
+      <c r="B32">
+        <v>10476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30164</v>
+      </c>
+      <c r="B33">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30195</v>
+      </c>
+      <c r="B34">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>30225</v>
+      </c>
+      <c r="B35">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>30256</v>
+      </c>
+      <c r="B36">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>30286</v>
+      </c>
+      <c r="B37">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>30317</v>
+      </c>
+      <c r="B38">
+        <v>7942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>30348</v>
+      </c>
+      <c r="B39">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>30376</v>
+      </c>
+      <c r="B40">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>30407</v>
+      </c>
+      <c r="B41">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>30437</v>
+      </c>
+      <c r="B42">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>30468</v>
+      </c>
+      <c r="B43">
+        <v>9773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>30498</v>
+      </c>
+      <c r="B44">
+        <v>10358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>30529</v>
+      </c>
+      <c r="B45">
+        <v>9849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>30560</v>
+      </c>
+      <c r="B46">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>30590</v>
+      </c>
+      <c r="B47">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>30621</v>
+      </c>
+      <c r="B48">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>30651</v>
+      </c>
+      <c r="B49">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>30682</v>
+      </c>
+      <c r="B50">
+        <v>8492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>30713</v>
+      </c>
+      <c r="B51">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>30742</v>
+      </c>
+      <c r="B52">
+        <v>9354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>30773</v>
+      </c>
+      <c r="B53">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>30803</v>
+      </c>
+      <c r="B54">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>30834</v>
+      </c>
+      <c r="B55">
+        <v>10174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>30864</v>
+      </c>
+      <c r="B56">
+        <v>11326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>30895</v>
+      </c>
+      <c r="B57">
+        <v>10744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>30926</v>
+      </c>
+      <c r="B58">
+        <v>9806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>30956</v>
+      </c>
+      <c r="B59">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>30987</v>
+      </c>
+      <c r="B60">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>31017</v>
+      </c>
+      <c r="B61">
+        <v>9244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>31048</v>
+      </c>
+      <c r="B62">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>31079</v>
+      </c>
+      <c r="B63">
+        <v>8827</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>31107</v>
+      </c>
+      <c r="B64">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>31138</v>
+      </c>
+      <c r="B65">
+        <v>9364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>31168</v>
+      </c>
+      <c r="B66">
+        <v>10580</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>31199</v>
+      </c>
+      <c r="B67">
+        <v>10899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>31229</v>
+      </c>
+      <c r="B68">
+        <v>11687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>31260</v>
+      </c>
+      <c r="B69">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>31291</v>
+      </c>
+      <c r="B70">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>31321</v>
+      </c>
+      <c r="B71">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>31352</v>
+      </c>
+      <c r="B72">
+        <v>9725</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>31382</v>
+      </c>
+      <c r="B73">
+        <v>9721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>31413</v>
+      </c>
+      <c r="B74">
+        <v>9846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>31444</v>
+      </c>
+      <c r="B75">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>31472</v>
+      </c>
+      <c r="B76">
+        <v>10265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>31503</v>
+      </c>
+      <c r="B77">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>31533</v>
+      </c>
+      <c r="B78">
+        <v>10801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>31564</v>
+      </c>
+      <c r="B79">
+        <v>11246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>31594</v>
+      </c>
+      <c r="B80">
+        <v>12167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>31625</v>
+      </c>
+      <c r="B81">
+        <v>11578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>31656</v>
+      </c>
+      <c r="B82">
+        <v>10645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>31686</v>
+      </c>
+      <c r="B83">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>31717</v>
+      </c>
+      <c r="B84">
+        <v>10104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>31747</v>
+      </c>
+      <c r="B85">
+        <v>10348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>31778</v>
+      </c>
+      <c r="B86">
+        <v>10263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>31809</v>
+      </c>
+      <c r="B87">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>31837</v>
+      </c>
+      <c r="B88">
+        <v>10803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>31868</v>
+      </c>
+      <c r="B89">
+        <v>10409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>31898</v>
+      </c>
+      <c r="B90">
+        <v>11458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>31929</v>
+      </c>
+      <c r="B91">
+        <v>11845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>31959</v>
+      </c>
+      <c r="B92">
+        <v>12559</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>31990</v>
+      </c>
+      <c r="B93">
+        <v>12070</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>32021</v>
+      </c>
+      <c r="B94">
+        <v>11221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>32051</v>
+      </c>
+      <c r="B95">
+        <v>11338</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>32082</v>
+      </c>
+      <c r="B96">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>32112</v>
+      </c>
+      <c r="B97">
+        <v>11012</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>32143</v>
+      </c>
+      <c r="B98">
+        <v>10923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>32174</v>
+      </c>
+      <c r="B99">
+        <v>10790</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>32203</v>
+      </c>
+      <c r="B100">
+        <v>11427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>32234</v>
+      </c>
+      <c r="B101">
+        <v>10788</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>32264</v>
+      </c>
+      <c r="B102">
+        <v>11772</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>32295</v>
+      </c>
+      <c r="B103">
+        <v>12104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>32325</v>
+      </c>
+      <c r="B104">
+        <v>12634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>32356</v>
+      </c>
+      <c r="B105">
+        <v>12772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>32387</v>
+      </c>
+      <c r="B106">
+        <v>11764</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>32417</v>
+      </c>
+      <c r="B107">
+        <v>11956</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>32448</v>
+      </c>
+      <c r="B108">
+        <v>11646</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>32478</v>
+      </c>
+      <c r="B109">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>32509</v>
+      </c>
+      <c r="B110">
+        <v>11485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>32540</v>
+      </c>
+      <c r="B111">
+        <v>11198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>32568</v>
+      </c>
+      <c r="B112">
+        <v>12265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>32599</v>
+      </c>
+      <c r="B113">
+        <v>11704</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>32629</v>
+      </c>
+      <c r="B114">
+        <v>12419</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>32660</v>
+      </c>
+      <c r="B115">
+        <v>13259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>32690</v>
+      </c>
+      <c r="B116">
+        <v>13945</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>32721</v>
+      </c>
+      <c r="B117">
+        <v>13839</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>32752</v>
+      </c>
+      <c r="B118">
+        <v>12387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>32782</v>
+      </c>
+      <c r="B119">
+        <v>12546</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>32813</v>
+      </c>
+      <c r="B120">
+        <v>12038</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>32843</v>
+      </c>
+      <c r="B121">
+        <v>11977</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>32874</v>
+      </c>
+      <c r="B122">
+        <v>12336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>32905</v>
+      </c>
+      <c r="B123">
+        <v>11793</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>32933</v>
+      </c>
+      <c r="B124">
+        <v>12877</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>32964</v>
+      </c>
+      <c r="B125">
+        <v>11923</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>32994</v>
+      </c>
+      <c r="B126">
+        <v>13306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>33025</v>
+      </c>
+      <c r="B127">
+        <v>13988</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>33055</v>
+      </c>
+      <c r="B128">
+        <v>14002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>33086</v>
+      </c>
+      <c r="B129">
+        <v>14336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>33117</v>
+      </c>
+      <c r="B130">
+        <v>12867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>33147</v>
+      </c>
+      <c r="B131">
+        <v>12721</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>33178</v>
+      </c>
+      <c r="B132">
+        <v>12449</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>33208</v>
+      </c>
+      <c r="B133">
+        <v>12686</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>33239</v>
+      </c>
+      <c r="B134">
+        <v>12810</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>33270</v>
+      </c>
+      <c r="B135">
+        <v>12015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>33298</v>
+      </c>
+      <c r="B136">
+        <v>12888</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>33329</v>
+      </c>
+      <c r="B137">
+        <v>12431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>33359</v>
+      </c>
+      <c r="B138">
+        <v>13499</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>33390</v>
+      </c>
+      <c r="B139">
+        <v>13014</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>33420</v>
+      </c>
+      <c r="B140">
+        <v>14296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>33451</v>
+      </c>
+      <c r="B141">
+        <v>14125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>33482</v>
+      </c>
+      <c r="B142">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>33512</v>
+      </c>
+      <c r="B143">
+        <v>12862</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>33543</v>
+      </c>
+      <c r="B144">
+        <v>12449</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>33573</v>
+      </c>
+      <c r="B145">
+        <v>12489</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>33604</v>
+      </c>
+      <c r="B146">
+        <v>12621</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>33635</v>
+      </c>
+      <c r="B147">
+        <v>12380</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>33664</v>
+      </c>
+      <c r="B148">
+        <v>13023</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>33695</v>
+      </c>
+      <c r="B149">
+        <v>12302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>33725</v>
+      </c>
+      <c r="B150">
+        <v>13339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>33756</v>
+      </c>
+      <c r="B151">
+        <v>13825</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>33786</v>
+      </c>
+      <c r="B152">
+        <v>14428</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>33817</v>
+      </c>
+      <c r="B153">
+        <v>14151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>33848</v>
+      </c>
+      <c r="B154">
+        <v>13355</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>33878</v>
+      </c>
+      <c r="B155">
+        <v>13094</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>33909</v>
+      </c>
+      <c r="B156">
+        <v>12656</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>33939</v>
+      </c>
+      <c r="B157">
+        <v>12435</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>33970</v>
+      </c>
+      <c r="B158">
+        <v>13287</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>34001</v>
+      </c>
+      <c r="B159">
+        <v>12434</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>34029</v>
+      </c>
+      <c r="B160">
+        <v>13209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>34060</v>
+      </c>
+      <c r="B161">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B162">
+        <v>13746</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>34121</v>
+      </c>
+      <c r="B163">
+        <v>14259</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>34151</v>
+      </c>
+      <c r="B164">
+        <v>14590</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>34182</v>
+      </c>
+      <c r="B165">
+        <v>14354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>34213</v>
+      </c>
+      <c r="B166">
+        <v>13254</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>34243</v>
+      </c>
+      <c r="B167">
+        <v>13464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>34274</v>
+      </c>
+      <c r="B168">
+        <v>13302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>34304</v>
+      </c>
+      <c r="B169">
+        <v>13456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>34335</v>
+      </c>
+      <c r="B170">
+        <v>13171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>34366</v>
+      </c>
+      <c r="B171">
+        <v>12517</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>34394</v>
+      </c>
+      <c r="B172">
+        <v>13489</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>34425</v>
+      </c>
+      <c r="B173">
+        <v>12509</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>34455</v>
+      </c>
+      <c r="B174">
+        <v>13785</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>34486</v>
+      </c>
+      <c r="B175">
+        <v>13921</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>34516</v>
+      </c>
+      <c r="B176">
+        <v>14603</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>34547</v>
+      </c>
+      <c r="B177">
+        <v>14749</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>34578</v>
+      </c>
+      <c r="B178">
+        <v>13540</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>34608</v>
+      </c>
+      <c r="B179">
+        <v>13457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>34639</v>
+      </c>
+      <c r="B180">
+        <v>13243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>34669</v>
+      </c>
+      <c r="B181">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>34700</v>
+      </c>
+      <c r="B182">
+        <v>13487</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>34731</v>
+      </c>
+      <c r="B183">
+        <v>12776</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>34759</v>
+      </c>
+      <c r="B184">
+        <v>13812</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>34790</v>
+      </c>
+      <c r="B185">
+        <v>13032</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>34820</v>
+      </c>
+      <c r="B186">
+        <v>14268</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>34851</v>
+      </c>
+      <c r="B187">
+        <v>14473</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>34881</v>
+      </c>
+      <c r="B188">
+        <v>15359</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>34912</v>
+      </c>
+      <c r="B189">
+        <v>14457</v>
       </c>
     </row>
   </sheetData>
